--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="Global" sheetId="1" r:id="rId4"/>
+    <sheet name="Global" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -40,87 +43,251 @@
     <t>1</t>
   </si>
   <si>
-    <t>heroMaxHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 英雄血量上限</t>
-  </si>
-  <si>
-    <t>99999999</t>
-  </si>
-  <si>
-    <t>heroMaxMP</t>
-  </si>
-  <si>
-    <t>英雄蓝量上限</t>
-  </si>
-  <si>
-    <t>heroMaxRage</t>
-  </si>
-  <si>
-    <t>英雄怒气值上限</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>heroMaxAtk</t>
-  </si>
-  <si>
-    <t>英雄攻击上限</t>
-  </si>
-  <si>
-    <t>heroDefName</t>
-  </si>
-  <si>
-    <t>英雄默认名字</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>无名</t>
-  </si>
-  <si>
-    <t>playerMaxName</t>
-  </si>
-  <si>
-    <t>角色名字字数上限</t>
+    <t>ArmorRatio</t>
+  </si>
+  <si>
+    <t>护甲减免系数</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>DmgRatio</t>
+  </si>
+  <si>
+    <t>总伤害率系数</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>CritRatio</t>
+  </si>
+  <si>
+    <t>暴击率系数</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>CritIncRatio</t>
+  </si>
+  <si>
+    <t>暴击倍数加成系数</t>
+  </si>
+  <si>
+    <t>HealRatio</t>
+  </si>
+  <si>
+    <t>治疗量系数</t>
+  </si>
+  <si>
+    <t>7000</t>
+  </si>
+  <si>
+    <t>EffectHitRatio</t>
+  </si>
+  <si>
+    <t>效果命中系数</t>
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>EffectResistRatio</t>
+  </si>
+  <si>
+    <t>效果抵抗系数</t>
+  </si>
+  <si>
+    <t>ElementDmgRatio</t>
+  </si>
+  <si>
+    <t>各伤害类型加成系数</t>
+  </si>
+  <si>
+    <t>ElementResRatio</t>
+  </si>
+  <si>
+    <t>各伤害类型抗性系数</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="SimSun"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,11 +297,197 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -202,70 +555,400 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="00AAAAAA"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office 主题">
       <a:dk1>
@@ -391,7 +1074,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -400,7 +1083,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -409,7 +1092,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -483,13 +1166,12 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
@@ -509,8 +1191,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -539,8 +1220,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -565,8 +1245,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -591,8 +1270,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -617,8 +1295,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -643,8 +1320,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -669,8 +1345,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -695,8 +1370,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -721,8 +1395,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -747,8 +1420,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -761,9 +1433,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -778,13 +1456,12 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -804,8 +1481,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -830,8 +1506,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -856,8 +1531,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -882,8 +1556,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -908,8 +1581,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -934,8 +1606,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -960,8 +1631,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -986,8 +1656,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1012,8 +1681,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1038,8 +1706,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1052,9 +1719,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1065,8 +1738,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
@@ -1086,8 +1757,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1116,8 +1786,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1142,8 +1811,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1168,8 +1836,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1194,8 +1861,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1220,8 +1886,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1246,8 +1911,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1272,8 +1936,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1298,8 +1961,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1324,8 +1986,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1338,9 +1999,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
@@ -1349,23 +2016,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="14.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6719" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.8516" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.1719" style="1" customWidth="1"/>
+    <col min="1" max="2" width="14.35" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.175" style="1" customWidth="1"/>
     <col min="8" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
@@ -1375,147 +2045,198 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" ht="57" customHeight="1">
+    <row r="2" ht="57" customHeight="1" spans="1:7">
       <c r="A2" s="5"/>
       <c r="B2" s="4"/>
-      <c r="C2" t="s" s="6">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s" s="6">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s" s="6">
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s" s="6">
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s" s="6">
+      <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="14" customHeight="1">
+    <row r="3" ht="14" customHeight="1" spans="1:7">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" t="s" s="7">
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="7"/>
-      <c r="F3" t="s" s="8">
+      <c r="F3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s" s="8">
+      <c r="G3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="14" customHeight="1">
+    <row r="4" ht="14" customHeight="1" spans="1:7">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" t="s" s="7">
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s" s="7">
+      <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="F4" t="s" s="8">
+      <c r="F4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G4" t="s" s="8">
+      <c r="G4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="14" customHeight="1">
+    <row r="5" ht="14" customHeight="1" spans="1:7">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
-      <c r="C5" t="s" s="7">
+      <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s" s="7">
+      <c r="D5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" t="s" s="8">
+      <c r="F5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G5" t="s" s="8">
-        <v>11</v>
+      <c r="G5" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="6" ht="14" customHeight="1">
+    <row r="6" ht="14" customHeight="1" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s" s="7">
+      <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="D6" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="E6" s="6"/>
-      <c r="F6" t="s" s="7">
+      <c r="F6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G6" t="s" s="7">
-        <v>16</v>
+      <c r="G6" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="7" ht="14" customHeight="1">
+    <row r="7" ht="14" customHeight="1" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s" s="7">
+      <c r="C7" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="D7" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="E7" s="6"/>
-      <c r="F7" t="s" s="7">
+      <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G7" t="s" s="7">
-        <v>11</v>
+      <c r="G7" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="8" ht="14" customHeight="1">
+    <row r="8" ht="14" customHeight="1" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" t="s" s="9">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s" s="7">
+      <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E8" s="6"/>
-      <c r="F8" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s" s="7">
+      <c r="F8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" ht="14" customHeight="1">
+    <row r="9" ht="14" customHeight="1" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" t="s" s="9">
+      <c r="C9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s" s="7">
+      <c r="D9" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="F9" t="s" s="7">
+      <c r="F9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G9" t="s" s="7">
+      <c r="G9" s="7" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:7">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:7">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:7">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -67,7 +67,7 @@
     <t>暴击率系数</t>
   </si>
   <si>
-    <t>2000</t>
+    <t>4000</t>
   </si>
   <si>
     <t>CritIncRatio</t>
@@ -117,10 +117,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -136,8 +136,39 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,10 +182,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,16 +198,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,7 +228,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,7 +258,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,7 +273,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -225,67 +286,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -302,19 +302,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,31 +392,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,127 +476,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,6 +557,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -585,23 +609,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,34 +653,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -671,133 +671,133 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2021,7 +2021,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>

--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="29560" windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -110,6 +110,30 @@
   </si>
   <si>
     <t>各伤害类型抗性系数</t>
+  </si>
+  <si>
+    <t>MaterialContainerMax</t>
+  </si>
+  <si>
+    <t>材料与消耗背包容量上限，超过此容量无法获得物品</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>EquipContainerMax</t>
+  </si>
+  <si>
+    <t>装备背包容量上限，超过此容量无法获得物品</t>
+  </si>
+  <si>
+    <t>CrystalContainerMax</t>
+  </si>
+  <si>
+    <t>晶石容量上限，超过此容量无法获得物品</t>
+  </si>
+  <si>
+    <t>1000</t>
   </si>
 </sst>
 </file>
@@ -117,9 +141,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -136,9 +160,30 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,15 +198,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,6 +214,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,9 +235,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,8 +258,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -207,21 +275,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,52 +303,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,6 +326,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -314,13 +398,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,145 +482,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,6 +587,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -571,15 +625,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -590,6 +635,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -618,190 +678,160 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -809,66 +839,69 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -1203,7 +1236,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1769,7 +1802,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2016,21 +2049,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="14.35" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.175" style="1" customWidth="1"/>
+    <col min="1" max="2" width="14.3461538461538" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.2307692307692" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.5384615384615" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1538461538462" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.1730769230769" style="1" customWidth="1"/>
     <col min="8" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2070,14 +2103,14 @@
       <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2087,14 +2120,14 @@
       <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2104,14 +2137,14 @@
       <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2121,14 +2154,14 @@
       <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2138,14 +2171,14 @@
       <c r="C7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2155,14 +2188,14 @@
       <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="6"/>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2172,14 +2205,14 @@
       <c r="C9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2189,14 +2222,14 @@
       <c r="C10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="6"/>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2206,14 +2239,14 @@
       <c r="C11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="6"/>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2223,19 +2256,70 @@
       <c r="C12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="6"/>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="8" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>

--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -134,6 +134,18 @@
   </si>
   <si>
     <t>1000</t>
+  </si>
+  <si>
+    <t>EquipPromoteLevelLimit</t>
+  </si>
+  <si>
+    <t>装备突破队伍等级限制</t>
+  </si>
+  <si>
+    <t>[]int32</t>
+  </si>
+  <si>
+    <t>10,20,30,40,50</t>
   </si>
 </sst>
 </file>
@@ -143,8 +155,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -161,6 +173,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -171,6 +190,14 @@
       <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,6 +217,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
@@ -197,25 +232,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -235,9 +256,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,7 +286,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,51 +322,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -338,181 +350,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,17 +598,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,8 +610,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,21 +651,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,168 +681,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2051,10 +2063,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
@@ -2318,6 +2330,23 @@
         <v>39</v>
       </c>
     </row>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>

--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29560" windowHeight="17020"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -153,10 +153,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -173,7 +173,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,24 +201,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,23 +253,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -250,35 +270,39 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,32 +316,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,13 +344,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,37 +440,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,127 +524,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,11 +598,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,16 +643,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,21 +662,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,176 +681,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -857,63 +857,63 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2061,21 +2061,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="14.3461538461538" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.2307692307692" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.5384615384615" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1538461538462" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.1730769230769" style="1" customWidth="1"/>
+    <col min="1" max="2" width="14.35" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.2333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.5416666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.15" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.175" style="1" customWidth="1"/>
     <col min="8" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2119,10 +2119,10 @@
         <v>6</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2136,10 +2136,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2153,17 +2153,17 @@
         <v>13</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -2180,7 +2180,7 @@
     <row r="7" ht="14" customHeight="1" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -2197,7 +2197,7 @@
     <row r="8" ht="14" customHeight="1" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -2214,7 +2214,7 @@
     <row r="9" ht="14" customHeight="1" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -2231,7 +2231,7 @@
     <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -2248,7 +2248,7 @@
     <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -2265,7 +2265,7 @@
     <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -2282,7 +2282,7 @@
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -2299,7 +2299,7 @@
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -2316,7 +2316,7 @@
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -2333,7 +2333,7 @@
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="8" t="s">

--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="29560" windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -146,6 +146,24 @@
   </si>
   <si>
     <t>10,20,30,40,50</t>
+  </si>
+  <si>
+    <t>EquipLevelQualityRatio</t>
+  </si>
+  <si>
+    <t>装备升级品质参数，100%=10000</t>
+  </si>
+  <si>
+    <t>EquipLevelGrowRatioAttId</t>
+  </si>
+  <si>
+    <t>装备升级成长率attid</t>
+  </si>
+  <si>
+    <t>EquipInitExp</t>
+  </si>
+  <si>
+    <t>不同品质初始装备经验值</t>
   </si>
 </sst>
 </file>
@@ -153,10 +171,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -173,14 +191,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,8 +250,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,81 +318,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -300,24 +334,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,187 +362,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,37 +616,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,6 +649,47 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -680,166 +713,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -857,63 +875,63 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2061,21 +2079,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="14.35" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.2333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.5416666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.15" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.175" style="1" customWidth="1"/>
+    <col min="1" max="2" width="14.3461538461538" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.2307692307692" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.5384615384615" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1538461538462" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.1730769230769" style="1" customWidth="1"/>
     <col min="8" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2119,10 +2137,10 @@
         <v>6</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2136,10 +2154,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2153,17 +2171,17 @@
         <v>13</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -2180,7 +2198,7 @@
     <row r="7" ht="14" customHeight="1" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -2197,7 +2215,7 @@
     <row r="8" ht="14" customHeight="1" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -2214,7 +2232,7 @@
     <row r="9" ht="14" customHeight="1" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -2231,7 +2249,7 @@
     <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -2248,7 +2266,7 @@
     <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -2265,7 +2283,7 @@
     <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -2282,7 +2300,7 @@
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -2299,7 +2317,7 @@
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -2316,7 +2334,7 @@
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -2333,7 +2351,7 @@
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -2344,6 +2362,57 @@
         <v>42</v>
       </c>
       <c r="G16" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>43</v>
       </c>
     </row>

--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -91,9 +91,6 @@
     <t>效果命中系数</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>EffectResistRatio</t>
   </si>
   <si>
@@ -160,10 +157,25 @@
     <t>装备升级成长率attid</t>
   </si>
   <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>EquipInitExp</t>
   </si>
   <si>
     <t>不同品质初始装备经验值</t>
+  </si>
+  <si>
+    <t>75,100,125,150,200</t>
+  </si>
+  <si>
+    <t>HeroLevelQualityRatio</t>
+  </si>
+  <si>
+    <t>HeroLevelGrowRatioAttId</t>
+  </si>
+  <si>
+    <t>英雄升级成长率attid</t>
   </si>
 </sst>
 </file>
@@ -171,10 +183,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -204,17 +216,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,6 +225,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -244,7 +262,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,24 +316,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,36 +347,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -362,187 +374,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,15 +637,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -649,6 +652,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -660,6 +672,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,172 +725,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2081,10 +2093,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
@@ -2243,17 +2255,17 @@
         <v>7</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="8" t="s">
@@ -2267,10 +2279,10 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="8" t="s">
@@ -2284,10 +2296,10 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="8" t="s">
@@ -2301,102 +2313,102 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -2410,10 +2422,44 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>43</v>
+    </row>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29560" windowHeight="17020"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -151,6 +151,9 @@
     <t>装备升级品质参数，100%=10000</t>
   </si>
   <si>
+    <t>5000,7500,1,12500,15000</t>
+  </si>
+  <si>
     <t>EquipLevelGrowRatioAttId</t>
   </si>
   <si>
@@ -169,13 +172,31 @@
     <t>75,100,125,150,200</t>
   </si>
   <si>
+    <t>HeroPromoteLevelLimit</t>
+  </si>
+  <si>
+    <t>英雄突破队伍等级限制</t>
+  </si>
+  <si>
+    <t>1,10,20,35,45</t>
+  </si>
+  <si>
     <t>HeroLevelQualityRatio</t>
   </si>
   <si>
+    <t>英雄升级品质参数，100%=10000</t>
+  </si>
+  <si>
+    <t>7500,10000,12500</t>
+  </si>
+  <si>
     <t>HeroLevelGrowRatioAttId</t>
   </si>
   <si>
     <t>英雄升级成长率attid</t>
+  </si>
+  <si>
+    <t>60</t>
   </si>
 </sst>
 </file>
@@ -183,10 +204,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -200,13 +221,6 @@
       <color indexed="8"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -224,14 +238,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,33 +351,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -284,74 +366,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -374,181 +395,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,6 +649,62 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -661,36 +738,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -699,177 +746,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -887,63 +908,63 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2091,21 +2112,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="14.3461538461538" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.2307692307692" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.5384615384615" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1538461538462" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.1730769230769" style="1" customWidth="1"/>
+    <col min="1" max="2" width="14.35" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.2333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.5416666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.15" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.175" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.75" style="1" customWidth="1"/>
     <col min="8" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2149,10 +2171,10 @@
         <v>6</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2166,10 +2188,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2183,17 +2205,17 @@
         <v>13</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -2210,7 +2232,7 @@
     <row r="7" ht="14" customHeight="1" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -2227,7 +2249,7 @@
     <row r="8" ht="14" customHeight="1" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -2244,7 +2266,7 @@
     <row r="9" ht="14" customHeight="1" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -2261,7 +2283,7 @@
     <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -2278,7 +2300,7 @@
     <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -2295,7 +2317,7 @@
     <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -2312,7 +2334,7 @@
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -2329,7 +2351,7 @@
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -2346,7 +2368,7 @@
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -2363,7 +2385,7 @@
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -2380,7 +2402,7 @@
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -2391,75 +2413,92 @@
         <v>41</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="9" t="s">
-        <v>45</v>
+      <c r="C18" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="9" t="s">
-        <v>48</v>
+      <c r="C19" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="8" t="s">
         <v>41</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="9" t="s">
-        <v>51</v>
+      <c r="C20" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="8" t="s">
         <v>41</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="9" t="s">
-        <v>52</v>
+      <c r="C21" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>47</v>
+      <c r="G22" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -13,6 +13,38 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Admin</author>
+  </authors>
+  <commentList>
+    <comment ref="G21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+只有升级增加的属性，即填了成长率的属性才会乘品质、职业系数</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
   <si>
@@ -209,7 +241,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -230,15 +262,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,10 +286,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -274,16 +330,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,55 +368,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -366,12 +398,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -395,31 +438,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,25 +588,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,121 +600,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,32 +692,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,13 +718,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,17 +742,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,151 +774,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2117,7 +2160,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
@@ -2507,5 +2550,6 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -19,6 +19,52 @@
     <author>Admin</author>
   </authors>
   <commentList>
+    <comment ref="D18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+升级属性用公式做
+装备属性成长数值公式=(装备等级*各属性成长率+各属性固定值)*装备品质参数
+公式内取值分别对应配置表att、global</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1级吞噬后的经验值</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G21" authorId="0">
       <text>
         <r>
@@ -41,6 +87,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="D22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+升级属性用公式做
+卡牌升级各属性公式=（卡牌等级*各升级属性成长率+各升级属性固定值）*卡牌品质系数*卡牌职业系数
+公式内取值分别对应配置表att、global、HeroProfession</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -192,7 +262,7 @@
     <t>装备升级成长率attid</t>
   </si>
   <si>
-    <t>50</t>
+    <t>2005</t>
   </si>
   <si>
     <t>EquipInitExp</t>
@@ -228,7 +298,7 @@
     <t>英雄升级成长率attid</t>
   </si>
   <si>
-    <t>60</t>
+    <t>20</t>
   </si>
 </sst>
 </file>
@@ -236,10 +306,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -256,7 +326,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,60 +431,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,32 +447,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -382,11 +460,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -395,14 +473,6 @@
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -438,19 +508,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,37 +652,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,79 +676,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,37 +688,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,26 +764,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,8 +789,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,8 +827,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -769,8 +839,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,148 +862,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2160,7 +2230,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>

--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="31340" windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="D18" authorId="0">
+    <comment ref="D20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -43,29 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1级吞噬后的经验值</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G21" authorId="0">
+    <comment ref="G22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D22" authorId="0">
+    <comment ref="D23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -256,6 +234,18 @@
     <t>5000,7500,1,12500,15000</t>
   </si>
   <si>
+    <t>EquipSwallowExpLoss</t>
+  </si>
+  <si>
+    <t>装备吞噬经验折损率</t>
+  </si>
+  <si>
+    <t>EquipSwallowGoldLoss</t>
+  </si>
+  <si>
+    <t>装备吞噬金币折损率</t>
+  </si>
+  <si>
     <t>EquipLevelGrowRatioAttId</t>
   </si>
   <si>
@@ -265,15 +255,6 @@
     <t>2005</t>
   </si>
   <si>
-    <t>EquipInitExp</t>
-  </si>
-  <si>
-    <t>不同品质初始装备经验值</t>
-  </si>
-  <si>
-    <t>75,100,125,150,200</t>
-  </si>
-  <si>
     <t>HeroPromoteLevelLimit</t>
   </si>
   <si>
@@ -299,6 +280,36 @@
   </si>
   <si>
     <t>20</t>
+  </si>
+  <si>
+    <t>CrystalSwallowExpLoss</t>
+  </si>
+  <si>
+    <t>晶石吞噬经验折损率</t>
+  </si>
+  <si>
+    <t>CrystalSwallowGoldLoss</t>
+  </si>
+  <si>
+    <t>晶石吞噬金币折损率</t>
+  </si>
+  <si>
+    <t>CrystalLevelupIntensityRatio</t>
+  </si>
+  <si>
+    <t>晶石升级强度系数</t>
+  </si>
+  <si>
+    <t>CrystalLevelupQualityRatio</t>
+  </si>
+  <si>
+    <t>晶石升级品质系数</t>
+  </si>
+  <si>
+    <t>CrystalLevelupRandRatio</t>
+  </si>
+  <si>
+    <t>晶石升级随机区间系数</t>
   </si>
 </sst>
 </file>
@@ -311,7 +322,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -323,6 +334,14 @@
       <color indexed="8"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -340,16 +359,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,29 +375,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -393,8 +388,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,22 +405,39 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,17 +452,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -453,39 +479,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -508,31 +508,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,151 +640,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,71 +766,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -859,151 +794,216 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1021,63 +1021,63 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2225,21 +2225,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="14.35" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.2333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.5416666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.175" style="1" customWidth="1"/>
+    <col min="1" max="2" width="14.3461538461538" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.5384615384615" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1538461538462" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1730769230769" style="1" customWidth="1"/>
     <col min="7" max="7" width="28.75" style="1" customWidth="1"/>
     <col min="8" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
@@ -2284,10 +2284,10 @@
         <v>6</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2301,10 +2301,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2318,17 +2318,17 @@
         <v>13</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -2345,7 +2345,7 @@
     <row r="7" ht="14" customHeight="1" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -2362,7 +2362,7 @@
     <row r="8" ht="14" customHeight="1" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -2379,7 +2379,7 @@
     <row r="9" ht="14" customHeight="1" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -2396,7 +2396,7 @@
     <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -2413,7 +2413,7 @@
     <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -2430,7 +2430,7 @@
     <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -2447,7 +2447,7 @@
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -2464,7 +2464,7 @@
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -2481,7 +2481,7 @@
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -2498,7 +2498,7 @@
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -2515,7 +2515,7 @@
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -2532,7 +2532,7 @@
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -2542,77 +2542,165 @@
       <c r="F18" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>51</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="10" t="s">
-        <v>52</v>
+      <c r="C20" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="8" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="21" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="10" t="s">
-        <v>55</v>
+      <c r="C21" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="8" t="s">
         <v>41</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="22" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="10" t="s">
-        <v>58</v>
+      <c r="C22" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="16.8" spans="1:7">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>60</v>
-      </c>
+      <c r="G23" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="16.8" spans="1:7">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="16.8" spans="1:7">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="16.8" spans="1:7">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="16.8" spans="1:7">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="16.8" spans="1:7">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31340" windowHeight="17020"/>
+    <workbookView windowWidth="29560" windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -310,6 +310,15 @@
   </si>
   <si>
     <t>晶石升级随机区间系数</t>
+  </si>
+  <si>
+    <t>CrystalViceAttAddLevel</t>
+  </si>
+  <si>
+    <t>晶石升级到3，6，9，12，15级时强化副属性</t>
+  </si>
+  <si>
+    <t>3,6,9,12,15</t>
   </si>
 </sst>
 </file>
@@ -318,9 +327,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -336,16 +345,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,18 +359,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -390,30 +399,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,16 +421,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,16 +452,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -472,18 +488,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -508,187 +517,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,17 +774,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,21 +810,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -821,6 +821,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -844,166 +855,164 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2227,10 +2236,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
@@ -2702,6 +2711,23 @@
       </c>
       <c r="G28" s="8"/>
     </row>
+    <row r="29" s="1" customFormat="1" ht="16.8" spans="1:7">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>

--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29560" windowHeight="17020"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -89,12 +89,34 @@
         </r>
       </text>
     </comment>
+    <comment ref="G25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1点经验消耗10金币</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="80">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -288,10 +310,16 @@
     <t>晶石吞噬经验折损率</t>
   </si>
   <si>
-    <t>CrystalSwallowGoldLoss</t>
-  </si>
-  <si>
-    <t>晶石吞噬金币折损率</t>
+    <t>8000</t>
+  </si>
+  <si>
+    <t>CrystalLevelupExpGoldRatio</t>
+  </si>
+  <si>
+    <t>晶石升级经验对应消耗金币比例</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>CrystalLevelupIntensityRatio</t>
@@ -300,16 +328,25 @@
     <t>晶石升级强度系数</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>CrystalLevelupQualityRatio</t>
   </si>
   <si>
     <t>晶石升级品质系数</t>
   </si>
   <si>
+    <t>7000,8500,10000,11500,12500</t>
+  </si>
+  <si>
     <t>CrystalLevelupRandRatio</t>
   </si>
   <si>
-    <t>晶石升级随机区间系数</t>
+    <t>晶石升级副属性随机区间系数</t>
+  </si>
+  <si>
+    <t>9000,11000</t>
   </si>
   <si>
     <t>CrystalViceAttAddLevel</t>
@@ -326,12 +363,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -345,8 +382,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,20 +393,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,16 +412,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,7 +436,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,16 +465,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,20 +503,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -473,27 +511,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -517,187 +565,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,8 +822,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,6 +848,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -827,6 +899,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -835,184 +916,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1030,63 +1078,63 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2234,21 +2282,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="14.3461538461538" style="1" customWidth="1"/>
+    <col min="1" max="2" width="14.35" style="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.5384615384615" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1538461538462" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1730769230769" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.5416666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.15" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.175" style="1" customWidth="1"/>
     <col min="7" max="7" width="28.75" style="1" customWidth="1"/>
     <col min="8" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
@@ -2293,10 +2341,10 @@
         <v>6</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2310,10 +2358,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2327,17 +2375,17 @@
         <v>13</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -2354,7 +2402,7 @@
     <row r="7" ht="14" customHeight="1" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -2371,7 +2419,7 @@
     <row r="8" ht="14" customHeight="1" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -2388,7 +2436,7 @@
     <row r="9" ht="14" customHeight="1" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -2405,7 +2453,7 @@
     <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -2422,7 +2470,7 @@
     <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -2439,7 +2487,7 @@
     <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -2456,7 +2504,7 @@
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -2473,7 +2521,7 @@
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -2490,7 +2538,7 @@
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -2507,7 +2555,7 @@
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -2524,7 +2572,7 @@
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -2541,7 +2589,7 @@
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -2556,7 +2604,7 @@
     <row r="19" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -2571,7 +2619,7 @@
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>50</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -2585,10 +2633,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="16.8" spans="1:7">
+    <row r="21" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="10" t="s">
         <v>53</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -2602,10 +2650,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="16.8" spans="1:7">
+    <row r="22" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="8" t="s">
@@ -2619,10 +2667,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="16.8" spans="1:7">
+    <row r="23" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="10" t="s">
         <v>59</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -2636,10 +2684,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="16.8" spans="1:7">
+    <row r="24" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>62</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -2649,83 +2697,93 @@
       <c r="F24" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="16.8" spans="1:7">
+      <c r="G24" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="9" t="s">
-        <v>64</v>
+      <c r="C25" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="16.8" spans="1:7">
+      <c r="G25" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="9" t="s">
-        <v>66</v>
+      <c r="C26" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="16.8" spans="1:7">
+      <c r="G26" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="9" t="s">
-        <v>68</v>
+      <c r="C27" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="16.8" spans="1:7">
+      <c r="G27" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="9" t="s">
-        <v>70</v>
+      <c r="C28" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="16.8" spans="1:7">
+      <c r="G28" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="9" t="s">
-        <v>72</v>
+      <c r="C29" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="8" t="s">
         <v>41</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="29560" windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -292,7 +292,7 @@
     <t>英雄升级品质参数，100%=10000</t>
   </si>
   <si>
-    <t>7500,10000,12500</t>
+    <t>0,0,7500,10000,12500</t>
   </si>
   <si>
     <t>HeroLevelGrowRatioAttId</t>
@@ -337,7 +337,7 @@
     <t>晶石升级品质系数</t>
   </si>
   <si>
-    <t>7000,8500,10000,11500,12500</t>
+    <t>7000,8500,10000,11500,12500,14500</t>
   </si>
   <si>
     <t>CrystalLevelupRandRatio</t>
@@ -363,12 +363,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -382,11 +382,63 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -398,7 +450,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,21 +472,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
@@ -436,14 +480,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,37 +496,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,45 +510,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -565,187 +554,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,62 +811,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -900,8 +835,47 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -916,151 +890,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1078,63 +1067,63 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2282,21 +2271,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="14.35" style="1" customWidth="1"/>
+    <col min="1" max="2" width="14.3461538461538" style="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.5416666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.175" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.5384615384615" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1538461538462" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1730769230769" style="1" customWidth="1"/>
     <col min="7" max="7" width="28.75" style="1" customWidth="1"/>
     <col min="8" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
@@ -2341,10 +2330,10 @@
         <v>6</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2358,10 +2347,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2375,17 +2364,17 @@
         <v>13</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -2402,7 +2391,7 @@
     <row r="7" ht="14" customHeight="1" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -2419,7 +2408,7 @@
     <row r="8" ht="14" customHeight="1" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -2436,7 +2425,7 @@
     <row r="9" ht="14" customHeight="1" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -2453,7 +2442,7 @@
     <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -2470,7 +2459,7 @@
     <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -2487,7 +2476,7 @@
     <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -2504,7 +2493,7 @@
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -2521,7 +2510,7 @@
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -2538,7 +2527,7 @@
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -2555,7 +2544,7 @@
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -2572,7 +2561,7 @@
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -2589,7 +2578,7 @@
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -2604,7 +2593,7 @@
     <row r="19" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -2619,7 +2608,7 @@
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>50</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -2633,10 +2622,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="16.5" spans="1:7">
+    <row r="21" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -2650,10 +2639,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="16.5" spans="1:7">
+    <row r="22" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="8" t="s">
@@ -2667,10 +2656,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="16.5" spans="1:7">
+    <row r="23" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>59</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -2684,10 +2673,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="16.5" spans="1:7">
+    <row r="24" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>62</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -2701,10 +2690,10 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="16.5" spans="1:7">
+    <row r="25" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>65</v>
       </c>
       <c r="D25" s="8" t="s">
@@ -2718,10 +2707,10 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="16.5" spans="1:7">
+    <row r="26" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>68</v>
       </c>
       <c r="D26" s="8" t="s">
@@ -2735,10 +2724,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="16.5" spans="1:7">
+    <row r="27" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>71</v>
       </c>
       <c r="D27" s="8" t="s">
@@ -2752,10 +2741,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="16.5" spans="1:7">
+    <row r="28" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D28" s="8" t="s">
@@ -2769,10 +2758,10 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="16.5" spans="1:7">
+    <row r="29" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>77</v>
       </c>
       <c r="D29" s="8" t="s">

--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -19,6 +19,28 @@
     <author>Admin</author>
   </authors>
   <commentList>
+    <comment ref="G19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1点经验消耗10金币</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D20" authorId="0">
       <text>
         <r>
@@ -262,10 +284,13 @@
     <t>装备吞噬经验折损率</t>
   </si>
   <si>
-    <t>EquipSwallowGoldLoss</t>
-  </si>
-  <si>
-    <t>装备吞噬金币折损率</t>
+    <t>EquipLevelupExpGoldRatio</t>
+  </si>
+  <si>
+    <t>装备升级经验对应消耗金币比例</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>EquipLevelGrowRatioAttId</t>
@@ -319,9 +344,6 @@
     <t>晶石升级经验对应消耗金币比例</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>CrystalLevelupIntensityRatio</t>
   </si>
   <si>
@@ -337,7 +359,7 @@
     <t>晶石升级品质系数</t>
   </si>
   <si>
-    <t>7000,8500,10000,11500,12500,14500</t>
+    <t>7000,8500,10000,11500,12500</t>
   </si>
   <si>
     <t>CrystalLevelupRandRatio</t>
@@ -363,10 +385,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -383,45 +405,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,6 +413,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,15 +440,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,6 +456,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -480,7 +488,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,29 +541,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -554,187 +576,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,6 +830,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -817,26 +872,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,30 +904,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -891,165 +913,165 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2276,7 +2298,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
@@ -2603,108 +2625,110 @@
       <c r="F19" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="8"/>
+      <c r="G19" s="8" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="8" t="s">
         <v>41</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="8" t="s">
         <v>41</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="16.8" spans="1:7">

--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29560" windowHeight="17020"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="80">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -284,6 +284,9 @@
     <t>装备吞噬经验折损率</t>
   </si>
   <si>
+    <t>8000</t>
+  </si>
+  <si>
     <t>EquipLevelupExpGoldRatio</t>
   </si>
   <si>
@@ -333,9 +336,6 @@
   </si>
   <si>
     <t>晶石吞噬经验折损率</t>
-  </si>
-  <si>
-    <t>8000</t>
   </si>
   <si>
     <t>CrystalLevelupExpGoldRatio</t>
@@ -385,12 +385,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -404,22 +404,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,9 +436,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -448,8 +501,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -464,68 +540,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,20 +555,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -576,31 +587,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,151 +761,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,6 +841,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -845,20 +871,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -872,17 +895,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -904,6 +921,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -912,166 +938,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1089,63 +1100,63 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2293,21 +2304,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="14.3461538461538" style="1" customWidth="1"/>
+    <col min="1" max="2" width="14.35" style="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.5384615384615" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1538461538462" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1730769230769" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.5416666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.15" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.175" style="1" customWidth="1"/>
     <col min="7" max="7" width="28.75" style="1" customWidth="1"/>
     <col min="8" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
@@ -2352,10 +2363,10 @@
         <v>6</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2369,10 +2380,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2386,17 +2397,17 @@
         <v>13</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -2413,7 +2424,7 @@
     <row r="7" ht="14" customHeight="1" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -2430,7 +2441,7 @@
     <row r="8" ht="14" customHeight="1" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -2447,7 +2458,7 @@
     <row r="9" ht="14" customHeight="1" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -2464,7 +2475,7 @@
     <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -2481,7 +2492,7 @@
     <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -2498,7 +2509,7 @@
     <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -2515,7 +2526,7 @@
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -2532,7 +2543,7 @@
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -2549,7 +2560,7 @@
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -2566,7 +2577,7 @@
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -2583,7 +2594,7 @@
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -2600,7 +2611,7 @@
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -2610,114 +2621,116 @@
       <c r="F18" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="8"/>
+      <c r="G18" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="19" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="9" t="s">
-        <v>48</v>
+      <c r="C19" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="9" t="s">
-        <v>51</v>
+      <c r="C20" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="16.8" spans="1:7">
+    <row r="21" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="9" t="s">
-        <v>54</v>
+      <c r="C21" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="8" t="s">
         <v>41</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="16.8" spans="1:7">
+    <row r="22" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="9" t="s">
-        <v>57</v>
+      <c r="C22" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="8" t="s">
         <v>41</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="16.8" spans="1:7">
+    <row r="23" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="9" t="s">
-        <v>60</v>
+      <c r="C23" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="16.8" spans="1:7">
+    <row r="24" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="9" t="s">
-        <v>63</v>
+      <c r="C24" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="16.8" spans="1:7">
+    <row r="25" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="10" t="s">
         <v>66</v>
       </c>
       <c r="D25" s="8" t="s">
@@ -2728,13 +2741,13 @@
         <v>7</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="16.8" spans="1:7">
+    <row r="26" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>68</v>
       </c>
       <c r="D26" s="8" t="s">
@@ -2748,10 +2761,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="16.8" spans="1:7">
+    <row r="27" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="10" t="s">
         <v>71</v>
       </c>
       <c r="D27" s="8" t="s">
@@ -2765,10 +2778,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="16.8" spans="1:7">
+    <row r="28" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="10" t="s">
         <v>74</v>
       </c>
       <c r="D28" s="8" t="s">
@@ -2782,10 +2795,10 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="16.8" spans="1:7">
+    <row r="29" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="10" t="s">
         <v>77</v>
       </c>
       <c r="D29" s="8" t="s">

--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="29560" windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -260,13 +260,13 @@
     <t>EquipPromoteLevelLimit</t>
   </si>
   <si>
-    <t>装备突破队伍等级限制</t>
+    <t>装备突破[0-5]队伍等级限制</t>
   </si>
   <si>
     <t>[]int32</t>
   </si>
   <si>
-    <t>10,20,30,40,50</t>
+    <t>0,10,20,30,40,50</t>
   </si>
   <si>
     <t>EquipLevelQualityRatio</t>
@@ -385,12 +385,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -404,9 +404,31 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,31 +441,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,6 +467,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -466,7 +505,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,20 +513,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,42 +526,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -547,24 +548,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -587,187 +576,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,60 +830,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -928,6 +863,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -938,151 +912,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1100,63 +1089,63 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2304,21 +2293,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="14.35" style="1" customWidth="1"/>
+    <col min="1" max="2" width="14.3461538461538" style="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.5416666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.175" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.5384615384615" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1538461538462" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1730769230769" style="1" customWidth="1"/>
     <col min="7" max="7" width="28.75" style="1" customWidth="1"/>
     <col min="8" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
@@ -2363,10 +2352,10 @@
         <v>6</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2380,10 +2369,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2397,17 +2386,17 @@
         <v>13</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -2424,7 +2413,7 @@
     <row r="7" ht="14" customHeight="1" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -2441,7 +2430,7 @@
     <row r="8" ht="14" customHeight="1" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -2458,7 +2447,7 @@
     <row r="9" ht="14" customHeight="1" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -2475,7 +2464,7 @@
     <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -2492,7 +2481,7 @@
     <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -2509,7 +2498,7 @@
     <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -2526,7 +2515,7 @@
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -2543,7 +2532,7 @@
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -2560,7 +2549,7 @@
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -2577,7 +2566,7 @@
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -2594,7 +2583,7 @@
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -2611,7 +2600,7 @@
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -2628,7 +2617,7 @@
     <row r="19" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -2645,7 +2634,7 @@
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>52</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -2659,10 +2648,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="16.5" spans="1:7">
+    <row r="21" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -2676,10 +2665,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="16.5" spans="1:7">
+    <row r="22" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>58</v>
       </c>
       <c r="D22" s="8" t="s">
@@ -2693,10 +2682,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="16.5" spans="1:7">
+    <row r="23" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>61</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -2710,10 +2699,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="16.5" spans="1:7">
+    <row r="24" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>64</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -2727,10 +2716,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="16.5" spans="1:7">
+    <row r="25" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>66</v>
       </c>
       <c r="D25" s="8" t="s">
@@ -2744,10 +2733,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="16.5" spans="1:7">
+    <row r="26" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>68</v>
       </c>
       <c r="D26" s="8" t="s">
@@ -2761,10 +2750,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="16.5" spans="1:7">
+    <row r="27" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>71</v>
       </c>
       <c r="D27" s="8" t="s">
@@ -2778,10 +2767,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="16.5" spans="1:7">
+    <row r="28" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D28" s="8" t="s">
@@ -2795,10 +2784,10 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="16.5" spans="1:7">
+    <row r="29" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>77</v>
       </c>
       <c r="D29" s="8" t="s">

--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -19,7 +19,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="G19" authorId="0">
+    <comment ref="G20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -41,7 +41,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D20" authorId="0">
+    <comment ref="D21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G22" authorId="0">
+    <comment ref="G23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D23" authorId="0">
+    <comment ref="D24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G25" authorId="0">
+    <comment ref="G26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -287,15 +287,21 @@
     <t>8000</t>
   </si>
   <si>
+    <t>HeroLevelupExpGoldRatio</t>
+  </si>
+  <si>
+    <t>英雄升级经验对应消耗金币比例</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>EquipLevelupExpGoldRatio</t>
   </si>
   <si>
     <t>装备升级经验对应消耗金币比例</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>EquipLevelGrowRatioAttId</t>
   </si>
   <si>
@@ -308,10 +314,10 @@
     <t>HeroPromoteLevelLimit</t>
   </si>
   <si>
-    <t>英雄突破队伍等级限制</t>
-  </si>
-  <si>
-    <t>1,10,20,35,45</t>
+    <t>英雄突破[0-5]队伍等级限制</t>
+  </si>
+  <si>
+    <t>0,1,10,20,35,45</t>
   </si>
   <si>
     <t>HeroLevelQualityRatio</t>
@@ -405,30 +411,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,6 +432,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -459,30 +480,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,8 +502,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,29 +522,6 @@
       <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -554,6 +538,28 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -576,31 +582,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,151 +762,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,8 +839,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,7 +873,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -895,15 +925,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -912,166 +933,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2295,10 +2301,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
@@ -2645,75 +2651,75 @@
         <v>7</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="16.8" spans="1:7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="8" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="8" t="s">
         <v>41</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="8" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="16.8" spans="1:7">
@@ -2730,7 +2736,7 @@
         <v>7</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="16.8" spans="1:7">
@@ -2747,58 +2753,75 @@
         <v>7</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="8" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="8" t="s">
         <v>41</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="8" t="s">
         <v>41</v>
       </c>
       <c r="G29" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="16.8" spans="1:7">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="9" t="s">
         <v>79</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29560" windowHeight="17020"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="87">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -384,6 +384,21 @@
   </si>
   <si>
     <t>3,6,9,12,15</t>
+  </si>
+  <si>
+    <t>CrystalLevelupQualityLimit</t>
+  </si>
+  <si>
+    <t>各品质晶石强化等级上限</t>
+  </si>
+  <si>
+    <t>CrystalLevelupAssistantNumber</t>
+  </si>
+  <si>
+    <t>晶石副属性随机到相同属性的次数上限</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -391,12 +406,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -410,8 +425,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,8 +448,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -446,33 +516,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,15 +532,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,23 +555,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,33 +576,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -582,187 +608,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,11 +862,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -850,6 +897,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -871,60 +942,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -933,151 +950,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1095,63 +1121,63 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2299,21 +2325,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="14.3461538461538" style="1" customWidth="1"/>
+    <col min="1" max="2" width="14.35" style="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.5384615384615" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1538461538462" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1730769230769" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.5416666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.15" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.175" style="1" customWidth="1"/>
     <col min="7" max="7" width="28.75" style="1" customWidth="1"/>
     <col min="8" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
@@ -2358,10 +2384,10 @@
         <v>6</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2375,10 +2401,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2392,17 +2418,17 @@
         <v>13</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -2419,7 +2445,7 @@
     <row r="7" ht="14" customHeight="1" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -2436,7 +2462,7 @@
     <row r="8" ht="14" customHeight="1" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -2453,7 +2479,7 @@
     <row r="9" ht="14" customHeight="1" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -2470,7 +2496,7 @@
     <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -2487,7 +2513,7 @@
     <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -2504,7 +2530,7 @@
     <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -2521,7 +2547,7 @@
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -2538,7 +2564,7 @@
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -2555,7 +2581,7 @@
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -2572,7 +2598,7 @@
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -2589,7 +2615,7 @@
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -2606,7 +2632,7 @@
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -2623,7 +2649,7 @@
     <row r="19" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -2640,7 +2666,7 @@
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>52</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -2657,7 +2683,7 @@
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="10" t="s">
         <v>54</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -2671,10 +2697,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="16.8" spans="1:7">
+    <row r="22" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>57</v>
       </c>
       <c r="D22" s="8" t="s">
@@ -2688,10 +2714,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="16.8" spans="1:7">
+    <row r="23" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -2705,10 +2731,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="16.8" spans="1:7">
+    <row r="24" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>63</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -2722,10 +2748,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="16.8" spans="1:7">
+    <row r="25" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="10" t="s">
         <v>66</v>
       </c>
       <c r="D25" s="8" t="s">
@@ -2739,10 +2765,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="16.8" spans="1:7">
+    <row r="26" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>68</v>
       </c>
       <c r="D26" s="8" t="s">
@@ -2756,10 +2782,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="16.8" spans="1:7">
+    <row r="27" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="10" t="s">
         <v>70</v>
       </c>
       <c r="D27" s="8" t="s">
@@ -2773,10 +2799,10 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="16.8" spans="1:7">
+    <row r="28" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="10" t="s">
         <v>73</v>
       </c>
       <c r="D28" s="8" t="s">
@@ -2790,10 +2816,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="16.8" spans="1:7">
+    <row r="29" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="10" t="s">
         <v>76</v>
       </c>
       <c r="D29" s="8" t="s">
@@ -2807,10 +2833,10 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="16.8" spans="1:7">
+    <row r="30" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>79</v>
       </c>
       <c r="D30" s="8" t="s">
@@ -2822,6 +2848,40 @@
       </c>
       <c r="G30" s="8" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -133,6 +133,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="G32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+注意不能小于2</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -408,8 +430,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -425,9 +447,46 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,21 +503,44 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -480,51 +562,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -538,32 +576,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,6 +586,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,25 +630,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,13 +750,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,85 +768,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,19 +792,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,12 +811,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,6 +884,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -873,6 +919,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -894,17 +958,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -924,186 +981,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2330,7 +2352,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>

--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="29560" windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="G20" authorId="0">
+    <comment ref="G22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -41,7 +41,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D21" authorId="0">
+    <comment ref="D23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G23" authorId="0">
+    <comment ref="G25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D24" authorId="0">
+    <comment ref="D26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G26" authorId="0">
+    <comment ref="G28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G32" authorId="0">
+    <comment ref="G35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -309,6 +309,15 @@
     <t>8000</t>
   </si>
   <si>
+    <t>EquipExpItems</t>
+  </si>
+  <si>
+    <t>装备经验道具id</t>
+  </si>
+  <si>
+    <t>150,151,152,153,154</t>
+  </si>
+  <si>
     <t>HeroLevelupExpGoldRatio</t>
   </si>
   <si>
@@ -318,6 +327,15 @@
     <t>10</t>
   </si>
   <si>
+    <t>HeroExpItems</t>
+  </si>
+  <si>
+    <t>英雄经验道具id</t>
+  </si>
+  <si>
+    <t>4,5,3,1,2</t>
+  </si>
+  <si>
     <t>EquipLevelupExpGoldRatio</t>
   </si>
   <si>
@@ -370,6 +388,15 @@
   </si>
   <si>
     <t>晶石升级经验对应消耗金币比例</t>
+  </si>
+  <si>
+    <t>CrystalExpItems</t>
+  </si>
+  <si>
+    <t>晶石经验道具id</t>
+  </si>
+  <si>
+    <t>200,201,202,203,204</t>
   </si>
   <si>
     <t>CrystalLevelupIntensityRatio</t>
@@ -428,12 +455,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -447,23 +474,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -478,6 +497,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
@@ -486,9 +513,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -500,8 +542,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,99 +619,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -630,37 +646,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,145 +820,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,21 +910,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -932,15 +933,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -956,13 +948,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -981,151 +977,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1143,63 +1159,63 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2347,21 +2363,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="14.35" style="1" customWidth="1"/>
+    <col min="1" max="2" width="14.3461538461538" style="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.5416666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.175" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.5384615384615" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1538461538462" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1730769230769" style="1" customWidth="1"/>
     <col min="7" max="7" width="28.75" style="1" customWidth="1"/>
     <col min="8" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
@@ -2406,10 +2422,10 @@
         <v>6</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2423,10 +2439,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2440,17 +2456,17 @@
         <v>13</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -2467,7 +2483,7 @@
     <row r="7" ht="14" customHeight="1" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -2484,7 +2500,7 @@
     <row r="8" ht="14" customHeight="1" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -2501,7 +2517,7 @@
     <row r="9" ht="14" customHeight="1" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -2518,7 +2534,7 @@
     <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -2535,7 +2551,7 @@
     <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -2552,7 +2568,7 @@
     <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -2569,7 +2585,7 @@
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -2586,7 +2602,7 @@
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -2603,7 +2619,7 @@
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -2620,7 +2636,7 @@
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -2637,7 +2653,7 @@
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -2654,7 +2670,7 @@
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -2671,7 +2687,7 @@
     <row r="19" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -2679,7 +2695,7 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="8" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>51</v>
@@ -2688,7 +2704,7 @@
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>52</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -2699,47 +2715,47 @@
         <v>7</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="10" t="s">
-        <v>54</v>
+      <c r="C21" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="8" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="16.5" spans="1:7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="10" t="s">
-        <v>57</v>
+      <c r="C22" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="8" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="16.5" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>60</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -2747,16 +2763,16 @@
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="8" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="16.5" spans="1:7">
+    <row r="24" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>63</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -2764,16 +2780,16 @@
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="8" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="16.5" spans="1:7">
+    <row r="25" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>66</v>
       </c>
       <c r="D25" s="8" t="s">
@@ -2781,67 +2797,67 @@
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="8" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="16.5" spans="1:7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="10" t="s">
-        <v>68</v>
+      <c r="C26" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="16.5" spans="1:7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="10" t="s">
-        <v>70</v>
+      <c r="C27" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="16.5" spans="1:7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="10" t="s">
-        <v>73</v>
+      <c r="C28" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="8" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="16.5" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D29" s="8" t="s">
@@ -2855,10 +2871,10 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="16.5" spans="1:7">
+    <row r="30" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>79</v>
       </c>
       <c r="D30" s="8" t="s">
@@ -2866,16 +2882,16 @@
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="8" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="16.5" spans="1:7">
+    <row r="31" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>82</v>
       </c>
       <c r="D31" s="8" t="s">
@@ -2886,24 +2902,75 @@
         <v>41</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="16.5" spans="1:7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="10" t="s">
-        <v>84</v>
+      <c r="C32" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="16.8" spans="1:7">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="16.8" spans="1:7">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="16.8" spans="1:7">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G32" s="8" t="s">
-        <v>86</v>
+      <c r="G35" s="8" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29560" windowHeight="17020"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="96">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -333,7 +333,7 @@
     <t>英雄经验道具id</t>
   </si>
   <si>
-    <t>4,5,3,1,2</t>
+    <t>1,2,3,4,5</t>
   </si>
   <si>
     <t>EquipLevelupExpGoldRatio</t>
@@ -455,12 +455,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -474,46 +474,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,6 +497,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -542,9 +578,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,17 +602,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -583,46 +619,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -646,25 +657,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,157 +837,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,15 +911,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -928,37 +930,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -980,6 +961,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -988,160 +1008,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1159,63 +1170,63 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2363,21 +2374,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="14.3461538461538" style="1" customWidth="1"/>
+    <col min="1" max="2" width="14.35" style="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.5384615384615" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1538461538462" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1730769230769" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.5416666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.15" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.175" style="1" customWidth="1"/>
     <col min="7" max="7" width="28.75" style="1" customWidth="1"/>
     <col min="8" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
@@ -2422,10 +2433,10 @@
         <v>6</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2439,10 +2450,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2456,17 +2467,17 @@
         <v>13</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -2483,7 +2494,7 @@
     <row r="7" ht="14" customHeight="1" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -2500,7 +2511,7 @@
     <row r="8" ht="14" customHeight="1" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -2517,7 +2528,7 @@
     <row r="9" ht="14" customHeight="1" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -2534,7 +2545,7 @@
     <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -2551,7 +2562,7 @@
     <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -2568,7 +2579,7 @@
     <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -2585,7 +2596,7 @@
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -2602,7 +2613,7 @@
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -2619,7 +2630,7 @@
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -2636,7 +2647,7 @@
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -2653,7 +2664,7 @@
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -2670,7 +2681,7 @@
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -2687,7 +2698,7 @@
     <row r="19" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -2704,7 +2715,7 @@
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>52</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -2721,7 +2732,7 @@
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="10" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -2738,7 +2749,7 @@
     <row r="22" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D22" s="8" t="s">
@@ -2755,7 +2766,7 @@
     <row r="23" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -2769,10 +2780,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="16.8" spans="1:7">
+    <row r="24" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>63</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -2786,10 +2797,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="16.8" spans="1:7">
+    <row r="25" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="10" t="s">
         <v>66</v>
       </c>
       <c r="D25" s="8" t="s">
@@ -2803,10 +2814,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="16.8" spans="1:7">
+    <row r="26" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>69</v>
       </c>
       <c r="D26" s="8" t="s">
@@ -2820,10 +2831,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="16.8" spans="1:7">
+    <row r="27" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="10" t="s">
         <v>72</v>
       </c>
       <c r="D27" s="8" t="s">
@@ -2837,10 +2848,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="16.8" spans="1:7">
+    <row r="28" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="10" t="s">
         <v>74</v>
       </c>
       <c r="D28" s="8" t="s">
@@ -2854,10 +2865,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="16.8" spans="1:7">
+    <row r="29" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="10" t="s">
         <v>76</v>
       </c>
       <c r="D29" s="8" t="s">
@@ -2871,10 +2882,10 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="16.8" spans="1:7">
+    <row r="30" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>79</v>
       </c>
       <c r="D30" s="8" t="s">
@@ -2888,10 +2899,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="16.8" spans="1:7">
+    <row r="31" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="10" t="s">
         <v>82</v>
       </c>
       <c r="D31" s="8" t="s">
@@ -2905,10 +2916,10 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="16.8" spans="1:7">
+    <row r="32" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="10" t="s">
         <v>85</v>
       </c>
       <c r="D32" s="8" t="s">
@@ -2922,10 +2933,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="16.8" spans="1:7">
+    <row r="33" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="10" t="s">
         <v>88</v>
       </c>
       <c r="D33" s="8" t="s">
@@ -2939,10 +2950,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="16.8" spans="1:7">
+    <row r="34" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="10" t="s">
         <v>91</v>
       </c>
       <c r="D34" s="8" t="s">
@@ -2956,10 +2967,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="16.8" spans="1:7">
+    <row r="35" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="10" t="s">
         <v>93</v>
       </c>
       <c r="D35" s="8" t="s">

--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -19,7 +19,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="G22" authorId="0">
+    <comment ref="G24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -41,7 +41,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D23" authorId="0">
+    <comment ref="D25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G25" authorId="0">
+    <comment ref="G27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D26" authorId="0">
+    <comment ref="D28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G28" authorId="0">
+    <comment ref="G30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G35" authorId="0">
+    <comment ref="G37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="100">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -277,6 +277,18 @@
   </si>
   <si>
     <t>1000</t>
+  </si>
+  <si>
+    <t>comlength</t>
+  </si>
+  <si>
+    <t>com行动条长度（格）</t>
+  </si>
+  <si>
+    <t>actlength</t>
+  </si>
+  <si>
+    <t>act条长度（格）</t>
   </si>
   <si>
     <t>EquipPromoteLevelLimit</t>
@@ -474,17 +486,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,7 +503,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -506,29 +523,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,15 +550,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,11 +566,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -586,8 +582,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,17 +621,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -657,6 +669,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -669,175 +747,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,21 +923,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -940,6 +937,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -968,17 +980,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -998,161 +1006,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2376,10 +2388,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
@@ -2655,214 +2667,214 @@
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="8" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="8" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="8" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="8" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="16.5" spans="1:7">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="8" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="16.5" spans="1:7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="8" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="8" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="8" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="16.5" spans="1:7">
@@ -2876,112 +2888,146 @@
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="8" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="8" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="8" t="s">
-        <v>95</v>
+      <c r="G37" s="8" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -19,7 +19,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="G24" authorId="0">
+    <comment ref="G22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -41,7 +41,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D25" authorId="0">
+    <comment ref="D23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G27" authorId="0">
+    <comment ref="G25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D28" authorId="0">
+    <comment ref="D26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G30" authorId="0">
+    <comment ref="G28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G37" authorId="0">
+    <comment ref="G35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="96">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -277,18 +277,6 @@
   </si>
   <si>
     <t>1000</t>
-  </si>
-  <si>
-    <t>comlength</t>
-  </si>
-  <si>
-    <t>com行动条长度（格）</t>
-  </si>
-  <si>
-    <t>actlength</t>
-  </si>
-  <si>
-    <t>act条长度（格）</t>
   </si>
   <si>
     <t>EquipPromoteLevelLimit</t>
@@ -467,10 +455,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -487,14 +475,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,14 +484,15 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -523,9 +505,16 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -543,10 +532,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -560,38 +590,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,33 +618,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,37 +657,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,145 +837,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,16 +915,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -971,22 +950,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1006,165 +989,170 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2388,10 +2376,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A16" sqref="$A16:$XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
@@ -2667,214 +2655,214 @@
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="8" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="8" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="8" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="8" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="8" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" customHeight="1" spans="1:7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="8" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="8" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="8" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="16.5" spans="1:7">
@@ -2888,146 +2876,112 @@
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="8" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="8" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="8" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="16.5" spans="1:7">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="16.5" spans="1:7">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\global\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CA4F1D-79DE-4001-8507-9596C52DE52B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -14,18 +20,19 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="G22" authorId="0">
+    <comment ref="G23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -34,6 +41,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -41,13 +49,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D23" authorId="0">
+    <comment ref="D24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -56,6 +65,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -65,13 +75,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="G25" authorId="0">
+    <comment ref="G26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -80,6 +91,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -87,13 +99,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D26" authorId="0">
+    <comment ref="D27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -102,6 +115,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -111,13 +125,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="G28" authorId="0">
+    <comment ref="G29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -126,6 +141,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -133,13 +149,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="G35" authorId="0">
+    <comment ref="G36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -148,6 +165,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -160,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="98">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -448,19 +466,19 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>DemoSceneRadius</t>
+  </si>
+  <si>
+    <t>Demo战斗场景半径，单位米(Demo完成后删除)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -471,172 +489,29 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="SimSun"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -655,194 +530,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -910,251 +599,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1177,57 +624,10 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -1300,6 +700,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1531,7 +934,7 @@
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1821,7 +1224,7 @@
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2097,7 +1500,7 @@
           <a:miter lim="400000"/>
         </a:ln>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2370,30 +1773,31 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="$A16:$XFD17"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="14.35" style="1" customWidth="1"/>
+    <col min="1" max="2" width="14.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.5416666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.175" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="28.75" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="6" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2404,7 +1808,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" ht="57" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="57" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="4"/>
       <c r="C2" s="6" t="s">
@@ -2423,7 +1827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="14" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="14.1" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="7" t="s">
@@ -2440,116 +1844,116 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="14" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" ht="14.1" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="7" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" ht="14" customHeight="1" spans="1:7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.1" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="E5" s="8"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" ht="14" customHeight="1" spans="1:7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.1" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="10" t="s">
-        <v>15</v>
+      <c r="C6" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" ht="14" customHeight="1" spans="1:7">
+      <c r="G6" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.1" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" ht="14" customHeight="1" spans="1:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.1" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" ht="14" customHeight="1" spans="1:7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.1" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.1" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="8" t="s">
@@ -2559,14 +1963,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:7">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="8" t="s">
@@ -2576,14 +1980,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:7">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="8" t="s">
@@ -2593,31 +1997,31 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="13" spans="1:7" ht="14.25" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.25" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="8" t="s">
@@ -2627,337 +2031,337 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.25" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="8" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" customHeight="1" spans="1:7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14.25" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="8" t="s">
         <v>41</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14.25" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="8" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" customHeight="1" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.25" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="8" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.25" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="8" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14.25" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="8" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14.25" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="8" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="14.25" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="16.5" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="14.25" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="8" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="16.5" spans="1:7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16.5">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="8" t="s">
         <v>41</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="16.5" spans="1:7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16.5">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="8" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="16.5" spans="1:7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="16.5">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="16.5" spans="1:7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16.5">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="16.5" spans="1:7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16.5">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="8" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="16.5" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16.5">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="8" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="16.5" spans="1:7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="16.5">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="8" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="16.5" spans="1:7">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="16.5">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="8" t="s">
         <v>41</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="16.5" spans="1:7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="16.5">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="8" t="s">
         <v>41</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="16.5" spans="1:7">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="16.5">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="8" t="s">
@@ -2967,29 +2371,47 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="16.5" spans="1:7">
+    <row r="35" spans="1:7" ht="16.5">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="16.5">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G36" s="8" t="s">
         <v>95</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\global\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CA4F1D-79DE-4001-8507-9596C52DE52B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -20,19 +14,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="G23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="G23" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -41,7 +34,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -49,14 +41,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D24" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -65,24 +56,22 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 升级属性用公式做
 装备属性成长数值公式=(装备等级*各属性成长率+各属性固定值)*装备品质参数
-公式内取值分别对应配置表att、global</t>
+公式内取值分别对应配置表att、globalconfig</t>
         </r>
       </text>
     </comment>
-    <comment ref="G26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="G26" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -91,7 +80,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -99,14 +87,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="D27" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -115,7 +102,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -125,14 +111,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="G29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="G29" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -141,7 +126,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -149,14 +133,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="G36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="G36" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -165,7 +148,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -207,6 +189,15 @@
     <t>1</t>
   </si>
   <si>
+    <t>DemoSceneRadius</t>
+  </si>
+  <si>
+    <t>Demo战斗场景半径，单位米(Demo完成后删除)</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>ArmorRatio</t>
   </si>
   <si>
@@ -366,7 +357,7 @@
     <t>装备升级成长率attid</t>
   </si>
   <si>
-    <t>2005</t>
+    <t>2001</t>
   </si>
   <si>
     <t>HeroPromoteLevelLimit</t>
@@ -393,9 +384,6 @@
     <t>英雄升级成长率attid</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>CrystalSwallowExpLoss</t>
   </si>
   <si>
@@ -466,19 +454,19 @@
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>DemoSceneRadius</t>
-  </si>
-  <si>
-    <t>Demo战斗场景半径，单位米(Demo完成后删除)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -489,29 +477,172 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="SimSun"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -530,8 +661,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -599,9 +916,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -624,10 +1183,57 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -700,9 +1306,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1773,19 +2376,19 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="14.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="1" customWidth="1"/>
@@ -1797,7 +2400,7 @@
     <col min="9" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" ht="15.75" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1808,7 +2411,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" ht="57" customHeight="1">
+    <row r="2" ht="57" customHeight="1" spans="1:7">
       <c r="A2" s="5"/>
       <c r="B2" s="4"/>
       <c r="C2" s="6" t="s">
@@ -1827,7 +2430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.1" customHeight="1">
+    <row r="3" ht="14.1" customHeight="1" spans="1:7">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="7" t="s">
@@ -1844,574 +2447,573 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.1" customHeight="1">
+    <row r="4" ht="14.1" customHeight="1" spans="1:7">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="7" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.1" customHeight="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="14.1" customHeight="1" spans="1:7">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.1" customHeight="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" ht="14.1" customHeight="1" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.1" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" ht="14.1" customHeight="1" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.1" customHeight="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" ht="14.1" customHeight="1" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.1" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" ht="14.1" customHeight="1" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="14.1" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" ht="14.1" customHeight="1" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:7">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:7">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:7">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="14.25" customHeight="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:7">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="14.25" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:7">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="14.25" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:7">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="14.25" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:7">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="14.25" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:7">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="14.25" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:7">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="14.25" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:7">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="16.5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5" spans="1:7">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="16.5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" spans="1:7">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="16.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5" spans="1:7">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="16.5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5" spans="1:7">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="16.5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" ht="16.5" spans="1:7">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="16.5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" ht="16.5" spans="1:7">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="16.5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" ht="16.5" spans="1:7">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="16.5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" ht="16.5" spans="1:7">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="16.5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" ht="16.5" spans="1:7">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="16.5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" ht="16.5" spans="1:7">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="16.5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" ht="16.5" spans="1:7">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="16.5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" ht="16.5" spans="1:7">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -83,7 +83,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-只有升级增加的属性，即填了成长率的属性才会乘品质、职业系数</t>
+只有升级增加的属性，即填了成长率的属性才会乘品质、职业系数
+目前只有3个品质，但要求填5个，所以前两个低品质填0</t>
         </r>
       </text>
     </comment>
@@ -160,12 +161,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="101">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
   <si>
-    <t>导出字段名</t>
+    <r>
+      <t>导出字段名（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开头字母要求必须小写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
   </si>
   <si>
     <t>导出字段描述</t>
@@ -174,10 +195,13 @@
     <t>导出字段控制</t>
   </si>
   <si>
-    <t>导出字段类型</t>
-  </si>
-  <si>
-    <t>导出字段值</t>
+    <t xml:space="preserve">导出字段类型
+类型是number的可以直接填小数
+</t>
+  </si>
+  <si>
+    <t>导出字段值
+数组的用英文逗号分开</t>
   </si>
   <si>
     <t>id</t>
@@ -189,16 +213,19 @@
     <t>1</t>
   </si>
   <si>
-    <t>DemoSceneRadius</t>
+    <t>demoSceneRadius</t>
   </si>
   <si>
     <t>Demo战斗场景半径，单位米(Demo完成后删除)</t>
   </si>
   <si>
+    <t>number</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
-    <t>ArmorRatio</t>
+    <t>armorRatio</t>
   </si>
   <si>
     <t>护甲减免系数</t>
@@ -207,7 +234,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>DmgRatio</t>
+    <t>dmgRatio</t>
   </si>
   <si>
     <t>总伤害率系数</t>
@@ -216,7 +243,7 @@
     <t>10000</t>
   </si>
   <si>
-    <t>CritRatio</t>
+    <t>critRatio</t>
   </si>
   <si>
     <t>暴击率系数</t>
@@ -225,13 +252,13 @@
     <t>4000</t>
   </si>
   <si>
-    <t>CritIncRatio</t>
+    <t>critIncRatio</t>
   </si>
   <si>
     <t>暴击倍数加成系数</t>
   </si>
   <si>
-    <t>HealRatio</t>
+    <t>healRatio</t>
   </si>
   <si>
     <t>治疗量系数</t>
@@ -240,31 +267,31 @@
     <t>7000</t>
   </si>
   <si>
-    <t>EffectHitRatio</t>
+    <t>effectHitRatio</t>
   </si>
   <si>
     <t>效果命中系数</t>
   </si>
   <si>
-    <t>EffectResistRatio</t>
+    <t>effectResistRatio</t>
   </si>
   <si>
     <t>效果抵抗系数</t>
   </si>
   <si>
-    <t>ElementDmgRatio</t>
+    <t>elementDmgRatio</t>
   </si>
   <si>
     <t>各伤害类型加成系数</t>
   </si>
   <si>
-    <t>ElementResRatio</t>
+    <t>elementResRatio</t>
   </si>
   <si>
     <t>各伤害类型抗性系数</t>
   </si>
   <si>
-    <t>MaterialContainerMax</t>
+    <t>materialContainerMax</t>
   </si>
   <si>
     <t>材料与消耗背包容量上限，超过此容量无法获得物品</t>
@@ -273,13 +300,13 @@
     <t>200</t>
   </si>
   <si>
-    <t>EquipContainerMax</t>
+    <t>equipContainerMax</t>
   </si>
   <si>
     <t>装备背包容量上限，超过此容量无法获得物品</t>
   </si>
   <si>
-    <t>CrystalContainerMax</t>
+    <t>crystalContainerMax</t>
   </si>
   <si>
     <t>晶石容量上限，超过此容量无法获得物品</t>
@@ -288,7 +315,7 @@
     <t>1000</t>
   </si>
   <si>
-    <t>EquipPromoteLevelLimit</t>
+    <t>equipPromoteLevelLimit</t>
   </si>
   <si>
     <t>装备突破[0-5]队伍等级限制</t>
@@ -300,103 +327,109 @@
     <t>0,10,20,30,40,50</t>
   </si>
   <si>
-    <t>EquipLevelQualityRatio</t>
+    <t>equipLevelQualityRatio</t>
   </si>
   <si>
     <t>装备升级品质参数，100%=10000</t>
   </si>
   <si>
-    <t>5000,7500,1,12500,15000</t>
-  </si>
-  <si>
-    <t>EquipSwallowExpLoss</t>
+    <t>[]number</t>
+  </si>
+  <si>
+    <t>0.5,0.75,1,1.25,1.5</t>
+  </si>
+  <si>
+    <t>equipSwallowExpLoss</t>
   </si>
   <si>
     <t>装备吞噬经验折损率</t>
   </si>
   <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>equipExpItems</t>
+  </si>
+  <si>
+    <t>装备经验道具id</t>
+  </si>
+  <si>
+    <t>150,151,152,153,154</t>
+  </si>
+  <si>
+    <t>heroLevelupExpGoldRatio</t>
+  </si>
+  <si>
+    <t>英雄升级经验对应消耗金币比例</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>heroExpItems</t>
+  </si>
+  <si>
+    <t>英雄经验道具id</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>equipLevelupExpGoldRatio</t>
+  </si>
+  <si>
+    <t>装备升级经验对应消耗金币比例</t>
+  </si>
+  <si>
+    <t>equipLevelGrowRatioAttId</t>
+  </si>
+  <si>
+    <t>装备升级成长率attid</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>heroPromoteLevelLimit</t>
+  </si>
+  <si>
+    <t>英雄突破[0-5]队伍等级限制</t>
+  </si>
+  <si>
+    <t>0,1,10,20,35,45</t>
+  </si>
+  <si>
+    <t>heroLevelQualityRatio</t>
+  </si>
+  <si>
+    <t>英雄升级品质参数</t>
+  </si>
+  <si>
+    <t>0,0,0.75,1,1.25</t>
+  </si>
+  <si>
+    <t>heroLevelGrowRatioAttId</t>
+  </si>
+  <si>
+    <t>英雄升级成长率attid</t>
+  </si>
+  <si>
+    <t>crystalSwallowExpLoss</t>
+  </si>
+  <si>
+    <t>晶石吞噬经验折损率</t>
+  </si>
+  <si>
     <t>8000</t>
   </si>
   <si>
-    <t>EquipExpItems</t>
-  </si>
-  <si>
-    <t>装备经验道具id</t>
-  </si>
-  <si>
-    <t>150,151,152,153,154</t>
-  </si>
-  <si>
-    <t>HeroLevelupExpGoldRatio</t>
-  </si>
-  <si>
-    <t>英雄升级经验对应消耗金币比例</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>HeroExpItems</t>
-  </si>
-  <si>
-    <t>英雄经验道具id</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5</t>
-  </si>
-  <si>
-    <t>EquipLevelupExpGoldRatio</t>
-  </si>
-  <si>
-    <t>装备升级经验对应消耗金币比例</t>
-  </si>
-  <si>
-    <t>EquipLevelGrowRatioAttId</t>
-  </si>
-  <si>
-    <t>装备升级成长率attid</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>HeroPromoteLevelLimit</t>
-  </si>
-  <si>
-    <t>英雄突破[0-5]队伍等级限制</t>
-  </si>
-  <si>
-    <t>0,1,10,20,35,45</t>
-  </si>
-  <si>
-    <t>HeroLevelQualityRatio</t>
-  </si>
-  <si>
-    <t>英雄升级品质参数，100%=10000</t>
-  </si>
-  <si>
-    <t>0,0,7500,10000,12500</t>
-  </si>
-  <si>
-    <t>HeroLevelGrowRatioAttId</t>
-  </si>
-  <si>
-    <t>英雄升级成长率attid</t>
-  </si>
-  <si>
-    <t>CrystalSwallowExpLoss</t>
-  </si>
-  <si>
-    <t>晶石吞噬经验折损率</t>
-  </si>
-  <si>
-    <t>CrystalLevelupExpGoldRatio</t>
+    <t>crystalLevelupExpGoldRatio</t>
   </si>
   <si>
     <t>晶石升级经验对应消耗金币比例</t>
   </si>
   <si>
-    <t>CrystalExpItems</t>
+    <t>crystalExpItems</t>
   </si>
   <si>
     <t>晶石经验道具id</t>
@@ -405,7 +438,7 @@
     <t>200,201,202,203,204</t>
   </si>
   <si>
-    <t>CrystalLevelupIntensityRatio</t>
+    <t>crystalLevelupIntensityRatio</t>
   </si>
   <si>
     <t>晶石升级强度系数</t>
@@ -414,25 +447,25 @@
     <t>4</t>
   </si>
   <si>
-    <t>CrystalLevelupQualityRatio</t>
+    <t>crystalLevelupQualityRatio</t>
   </si>
   <si>
     <t>晶石升级品质系数</t>
   </si>
   <si>
-    <t>7000,8500,10000,11500,12500</t>
-  </si>
-  <si>
-    <t>CrystalLevelupRandRatio</t>
+    <t>0.7,0.85,1,1.15,1.25</t>
+  </si>
+  <si>
+    <t>crystalLevelupRandRatio</t>
   </si>
   <si>
     <t>晶石升级副属性随机区间系数</t>
   </si>
   <si>
-    <t>9000,11000</t>
-  </si>
-  <si>
-    <t>CrystalViceAttAddLevel</t>
+    <t>0.9,1.1</t>
+  </si>
+  <si>
+    <t>crystalViceAttAddLevel</t>
   </si>
   <si>
     <t>晶石升级到3，6，9，12，15级时强化副属性</t>
@@ -441,13 +474,13 @@
     <t>3,6,9,12,15</t>
   </si>
   <si>
-    <t>CrystalLevelupQualityLimit</t>
+    <t>crystalLevelupQualityLimit</t>
   </si>
   <si>
     <t>各品质晶石强化等级上限</t>
   </si>
   <si>
-    <t>CrystalLevelupAssistantNumber</t>
+    <t>crystalLevelupAssistantNumber</t>
   </si>
   <si>
     <t>晶石副属性随机到相同属性的次数上限</t>
@@ -462,11 +495,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -475,99 +508,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -579,7 +528,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,7 +551,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -602,7 +559,35 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,7 +595,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -625,10 +610,70 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -663,12 +708,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -681,37 +858,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,121 +870,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,16 +966,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -950,6 +1001,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -965,21 +1025,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -987,6 +1032,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1005,25 +1059,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1032,154 +1077,158 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2385,7 +2434,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
@@ -2417,595 +2466,595 @@
       <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="14.1" customHeight="1" spans="1:7">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="14.1" customHeight="1" spans="1:7">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="9" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="11" t="s">
         <v>11</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" ht="14.1" customHeight="1" spans="1:7">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9" t="s">
+      <c r="D5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>14</v>
+      <c r="G5" s="11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" ht="14.1" customHeight="1" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="9" t="s">
+      <c r="D6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>17</v>
+      <c r="G6" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" ht="14.1" customHeight="1" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="8" t="s">
+      <c r="D7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>20</v>
+      <c r="G7" s="10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" ht="14.1" customHeight="1" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="8" t="s">
+      <c r="D8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>17</v>
+      <c r="G8" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="14.1" customHeight="1" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="8" t="s">
+      <c r="D9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>25</v>
+      <c r="G9" s="10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="14.1" customHeight="1" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="8" t="s">
+      <c r="D10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>17</v>
+      <c r="G10" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="8" t="s">
+      <c r="D11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>17</v>
+      <c r="G11" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="8" t="s">
+      <c r="D12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>17</v>
+      <c r="G12" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:7">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="8" t="s">
+      <c r="D13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>17</v>
+      <c r="G13" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:7">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="C14" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="8" t="s">
+      <c r="D14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>36</v>
+      <c r="G14" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="8" t="s">
+      <c r="D16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>41</v>
+      <c r="G16" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:7">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="C17" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="8" t="s">
+      <c r="D17" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" s="10" t="s">
         <v>45</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:7">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="C18" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="8" t="s">
+      <c r="D18" s="10" t="s">
         <v>48</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:7">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="8" t="s">
+      <c r="C19" s="12" t="s">
         <v>51</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:7">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="8" t="s">
+      <c r="C20" s="12" t="s">
         <v>54</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:7">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="8" t="s">
+      <c r="C21" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>57</v>
+      <c r="G21" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:7">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" s="8" t="s">
+      <c r="C22" s="12" t="s">
         <v>60</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:7">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="8" t="s">
+      <c r="C23" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>57</v>
+      <c r="G23" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:7">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="8" t="s">
+      <c r="C24" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>65</v>
+      <c r="G24" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="1:7">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="8" t="s">
+      <c r="C25" s="12" t="s">
         <v>68</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="1:7">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G26" s="8" t="s">
+      <c r="C26" s="12" t="s">
         <v>71</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="1:7">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="8" t="s">
+      <c r="C27" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="8" t="s">
-        <v>11</v>
+      <c r="G27" s="10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="1:7">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="8" t="s">
+      <c r="C28" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>51</v>
+      <c r="G28" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="1:7">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="8" t="s">
+      <c r="C29" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>57</v>
+      <c r="G29" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="30" ht="16.5" spans="1:7">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>80</v>
+      <c r="C30" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="31" ht="16.5" spans="1:7">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="8" t="s">
+      <c r="C31" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G31" s="8" t="s">
-        <v>83</v>
+      <c r="G31" s="10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="32" ht="16.5" spans="1:7">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>86</v>
+      <c r="C32" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="33" ht="16.5" spans="1:7">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>89</v>
+      <c r="C33" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="34" ht="16.5" spans="1:7">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>92</v>
+      <c r="C34" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="35" ht="16.5" spans="1:7">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>92</v>
+      <c r="C35" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="36" ht="16.5" spans="1:7">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="8" t="s">
+      <c r="C36" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="8" t="s">
-        <v>97</v>
+      <c r="G36" s="10" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -108,7 +108,7 @@
           <t xml:space="preserve">
 升级属性用公式做
 卡牌升级各属性公式=（卡牌等级*各升级属性成长率+各升级属性固定值）*卡牌品质系数*卡牌职业系数
-公式内取值分别对应配置表att、global、HeroProfession</t>
+公式内取值分别对应配置表att、globalconfig、HeroProfession</t>
         </r>
       </text>
     </comment>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>导出字段名（</t>
     </r>
     <r>
@@ -195,9 +201,9 @@
     <t>导出字段控制</t>
   </si>
   <si>
-    <t xml:space="preserve">导出字段类型
+    <t>导出字段类型
 类型是number的可以直接填小数
-</t>
+属性公式系数目前都用int32</t>
   </si>
   <si>
     <t>导出字段值
@@ -402,7 +408,7 @@
     <t>heroLevelQualityRatio</t>
   </si>
   <si>
-    <t>英雄升级品质参数</t>
+    <t>英雄升级品质参数：N，R，SR，SSR，UR</t>
   </si>
   <si>
     <t>0,0,0.75,1,1.25</t>
@@ -519,75 +525,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,48 +542,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -664,9 +578,101 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -708,187 +714,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,54 +968,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1021,17 +979,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1059,151 +1006,210 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2434,7 +2440,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
@@ -2443,7 +2449,7 @@
     <col min="3" max="3" width="33" style="1" customWidth="1"/>
     <col min="4" max="4" width="51.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="28.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="6" style="1" customWidth="1"/>
     <col min="9" max="16384" width="6" style="1"/>

--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23F39C9-6751-45D5-9941-1E1AA45B17C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -14,18 +20,19 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="G23" authorId="0">
+    <comment ref="G23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -34,6 +41,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -41,13 +49,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D24" authorId="0">
+    <comment ref="D24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -56,6 +65,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -65,13 +75,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="G26" authorId="0">
+    <comment ref="G26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -80,6 +91,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -88,13 +100,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D27" authorId="0">
+    <comment ref="D27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -103,6 +116,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -112,13 +126,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="G29" authorId="0">
+    <comment ref="G29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -127,6 +142,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -134,13 +150,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="G36" authorId="0">
+    <comment ref="G36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -149,6 +166,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -161,7 +179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="102">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -494,18 +512,16 @@
   <si>
     <t>3</t>
   </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -522,158 +538,8 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -684,16 +550,23 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="SimSun"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -712,194 +585,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -967,251 +654,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1238,57 +683,10 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -1361,6 +759,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2431,19 +1832,19 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="14.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="1" customWidth="1"/>
@@ -2455,7 +1856,7 @@
     <col min="9" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2466,7 +1867,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" ht="57" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="57" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="4"/>
       <c r="C2" s="6" t="s">
@@ -2485,7 +1886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="14.1" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="14.1" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="9" t="s">
@@ -2502,7 +1903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="14.1" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" ht="14.1" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="9" t="s">
@@ -2516,10 +1917,10 @@
         <v>11</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" ht="14.1" customHeight="1" spans="1:7">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.1" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="9" t="s">
@@ -2536,7 +1937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="14.1" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" ht="14.1" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="9" t="s">
@@ -2553,7 +1954,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="14.1" customHeight="1" spans="1:7">
+    <row r="7" spans="1:7" ht="14.1" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="12" t="s">
@@ -2570,7 +1971,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" ht="14.1" customHeight="1" spans="1:7">
+    <row r="8" spans="1:7" ht="14.1" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="12" t="s">
@@ -2587,7 +1988,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" ht="14.1" customHeight="1" spans="1:7">
+    <row r="9" spans="1:7" ht="14.1" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="12" t="s">
@@ -2604,7 +2005,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" ht="14.1" customHeight="1" spans="1:7">
+    <row r="10" spans="1:7" ht="14.1" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="12" t="s">
@@ -2621,7 +2022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:7">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="12" t="s">
@@ -2638,7 +2039,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:7">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="12" t="s">
@@ -2655,7 +2056,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:7">
+    <row r="13" spans="1:7" ht="14.25" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="12" t="s">
@@ -2672,7 +2073,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:7">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="12" t="s">
@@ -2689,7 +2090,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:7">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="12" t="s">
@@ -2706,7 +2107,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:7">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="12" t="s">
@@ -2723,7 +2124,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:7">
+    <row r="17" spans="1:7" ht="14.25" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="12" t="s">
@@ -2740,7 +2141,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:7">
+    <row r="18" spans="1:7" ht="14.25" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="12" t="s">
@@ -2757,7 +2158,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:7">
+    <row r="19" spans="1:7" ht="14.25" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="12" t="s">
@@ -2774,7 +2175,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:7">
+    <row r="20" spans="1:7" ht="14.25" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="12" t="s">
@@ -2791,7 +2192,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:7">
+    <row r="21" spans="1:7" ht="14.25" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="12" t="s">
@@ -2808,7 +2209,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:7">
+    <row r="22" spans="1:7" ht="14.25" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="12" t="s">
@@ -2825,7 +2226,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:7">
+    <row r="23" spans="1:7" ht="14.25" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="12" t="s">
@@ -2842,7 +2243,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:7">
+    <row r="24" spans="1:7" ht="14.25" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="12" t="s">
@@ -2859,7 +2260,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:7">
+    <row r="25" spans="1:7" ht="16.5">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="12" t="s">
@@ -2876,7 +2277,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:7">
+    <row r="26" spans="1:7" ht="16.5">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="12" t="s">
@@ -2893,7 +2294,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:7">
+    <row r="27" spans="1:7" ht="16.5">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="12" t="s">
@@ -2910,7 +2311,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:7">
+    <row r="28" spans="1:7" ht="16.5">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="12" t="s">
@@ -2927,7 +2328,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:7">
+    <row r="29" spans="1:7" ht="16.5">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="12" t="s">
@@ -2944,7 +2345,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:7">
+    <row r="30" spans="1:7" ht="16.5">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="12" t="s">
@@ -2961,7 +2362,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:7">
+    <row r="31" spans="1:7" ht="16.5">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="12" t="s">
@@ -2978,7 +2379,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:7">
+    <row r="32" spans="1:7" ht="16.5">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="12" t="s">
@@ -2995,7 +2396,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:7">
+    <row r="33" spans="1:7" ht="16.5">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="12" t="s">
@@ -3012,7 +2413,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:7">
+    <row r="34" spans="1:7" ht="16.5">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="12" t="s">
@@ -3029,7 +2430,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:7">
+    <row r="35" spans="1:7" ht="16.5">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="12" t="s">
@@ -3046,7 +2447,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:7">
+    <row r="36" spans="1:7" ht="16.5">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="12" t="s">
@@ -3064,11 +2465,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23F39C9-6751-45D5-9941-1E1AA45B17C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -20,19 +14,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="G23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D17" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -41,22 +34,20 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1点经验消耗10金币</t>
+关联EquipLevelup表promoteLimit突破次数限制</t>
         </r>
       </text>
     </comment>
-    <comment ref="D24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="G18" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -65,7 +56,51 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+包括1级就有的突破属性
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1点经验消耗10金币</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -75,14 +110,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="G26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="G27" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -91,7 +125,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -100,14 +133,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="D28" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -116,7 +148,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -126,14 +157,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="G29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="G30" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -142,7 +172,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -150,14 +179,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="G36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="G37" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -166,7 +194,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -179,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="104">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -246,198 +273,207 @@
     <t>number</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>armorRatio</t>
+  </si>
+  <si>
+    <t>护甲减免系数</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>dmgRatio</t>
+  </si>
+  <si>
+    <t>总伤害率系数</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>critRatio</t>
+  </si>
+  <si>
+    <t>暴击率系数</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>critIncRatio</t>
+  </si>
+  <si>
+    <t>暴击倍数加成系数</t>
+  </si>
+  <si>
+    <t>healRatio</t>
+  </si>
+  <si>
+    <t>治疗量系数</t>
+  </si>
+  <si>
+    <t>7000</t>
+  </si>
+  <si>
+    <t>effectHitRatio</t>
+  </si>
+  <si>
+    <t>效果命中系数</t>
+  </si>
+  <si>
+    <t>effectResistRatio</t>
+  </si>
+  <si>
+    <t>效果抵抗系数</t>
+  </si>
+  <si>
+    <t>elementDmgRatio</t>
+  </si>
+  <si>
+    <t>各伤害类型加成系数</t>
+  </si>
+  <si>
+    <t>elementResRatio</t>
+  </si>
+  <si>
+    <t>各伤害类型抗性系数</t>
+  </si>
+  <si>
+    <t>materialContainerMax</t>
+  </si>
+  <si>
+    <t>材料与消耗背包容量上限，超过此容量无法获得物品</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>equipContainerMax</t>
+  </si>
+  <si>
+    <t>装备背包容量上限，超过此容量无法获得物品</t>
+  </si>
+  <si>
+    <t>crystalContainerMax</t>
+  </si>
+  <si>
+    <t>晶石容量上限，超过此容量无法获得物品</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>equipPromoteLevelLimit</t>
+  </si>
+  <si>
+    <t>装备突破[0-7]队伍等级限制</t>
+  </si>
+  <si>
+    <t>[]int32</t>
+  </si>
+  <si>
+    <t>0,10,30,45,55,60,65,70</t>
+  </si>
+  <si>
+    <t>equipPromoteIntensityRatio</t>
+  </si>
+  <si>
+    <t>装备突破[0-7]每次强度等级</t>
+  </si>
+  <si>
+    <t>1,20,40,50,60,70,80,90</t>
+  </si>
+  <si>
+    <t>equipLevelQualityRatio</t>
+  </si>
+  <si>
+    <t>装备升级和突破品质参数</t>
+  </si>
+  <si>
+    <t>[]number</t>
+  </si>
+  <si>
+    <t>0.5,0.75,1,1.25,1.5</t>
+  </si>
+  <si>
+    <t>equipSwallowExpLoss</t>
+  </si>
+  <si>
+    <t>装备吞噬经验折损率</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>equipExpItems</t>
+  </si>
+  <si>
+    <t>装备经验道具id</t>
+  </si>
+  <si>
+    <t>150,151,152,153,154</t>
+  </si>
+  <si>
+    <t>heroLevelupExpGoldRatio</t>
+  </si>
+  <si>
+    <t>英雄升级经验对应消耗金币比例</t>
+  </si>
+  <si>
+    <t>heroExpItems</t>
+  </si>
+  <si>
+    <t>英雄经验道具id</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>equipLevelupExpGoldRatio</t>
+  </si>
+  <si>
+    <t>装备升级经验对应消耗金币比例</t>
+  </si>
+  <si>
+    <t>equipLevelGrowRatioAttId</t>
+  </si>
+  <si>
+    <t>装备升级成长率attid</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>heroPromoteLevelLimit</t>
+  </si>
+  <si>
+    <t>英雄突破[0-5]队伍等级限制</t>
+  </si>
+  <si>
+    <t>0,1,10,20,35,45</t>
+  </si>
+  <si>
+    <t>heroLevelQualityRatio</t>
+  </si>
+  <si>
+    <t>英雄升级品质参数：N，R，SR，SSR，UR</t>
+  </si>
+  <si>
+    <t>0,0,0.75,1,1.25</t>
+  </si>
+  <si>
+    <t>heroLevelGrowRatioAttId</t>
+  </si>
+  <si>
+    <t>英雄升级成长率attid</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
-    <t>armorRatio</t>
-  </si>
-  <si>
-    <t>护甲减免系数</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>dmgRatio</t>
-  </si>
-  <si>
-    <t>总伤害率系数</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>critRatio</t>
-  </si>
-  <si>
-    <t>暴击率系数</t>
-  </si>
-  <si>
-    <t>4000</t>
-  </si>
-  <si>
-    <t>critIncRatio</t>
-  </si>
-  <si>
-    <t>暴击倍数加成系数</t>
-  </si>
-  <si>
-    <t>healRatio</t>
-  </si>
-  <si>
-    <t>治疗量系数</t>
-  </si>
-  <si>
-    <t>7000</t>
-  </si>
-  <si>
-    <t>effectHitRatio</t>
-  </si>
-  <si>
-    <t>效果命中系数</t>
-  </si>
-  <si>
-    <t>effectResistRatio</t>
-  </si>
-  <si>
-    <t>效果抵抗系数</t>
-  </si>
-  <si>
-    <t>elementDmgRatio</t>
-  </si>
-  <si>
-    <t>各伤害类型加成系数</t>
-  </si>
-  <si>
-    <t>elementResRatio</t>
-  </si>
-  <si>
-    <t>各伤害类型抗性系数</t>
-  </si>
-  <si>
-    <t>materialContainerMax</t>
-  </si>
-  <si>
-    <t>材料与消耗背包容量上限，超过此容量无法获得物品</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>equipContainerMax</t>
-  </si>
-  <si>
-    <t>装备背包容量上限，超过此容量无法获得物品</t>
-  </si>
-  <si>
-    <t>crystalContainerMax</t>
-  </si>
-  <si>
-    <t>晶石容量上限，超过此容量无法获得物品</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>equipPromoteLevelLimit</t>
-  </si>
-  <si>
-    <t>装备突破[0-5]队伍等级限制</t>
-  </si>
-  <si>
-    <t>[]int32</t>
-  </si>
-  <si>
-    <t>0,10,20,30,40,50</t>
-  </si>
-  <si>
-    <t>equipLevelQualityRatio</t>
-  </si>
-  <si>
-    <t>装备升级品质参数，100%=10000</t>
-  </si>
-  <si>
-    <t>[]number</t>
-  </si>
-  <si>
-    <t>0.5,0.75,1,1.25,1.5</t>
-  </si>
-  <si>
-    <t>equipSwallowExpLoss</t>
-  </si>
-  <si>
-    <t>装备吞噬经验折损率</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>equipExpItems</t>
-  </si>
-  <si>
-    <t>装备经验道具id</t>
-  </si>
-  <si>
-    <t>150,151,152,153,154</t>
-  </si>
-  <si>
-    <t>heroLevelupExpGoldRatio</t>
-  </si>
-  <si>
-    <t>英雄升级经验对应消耗金币比例</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>heroExpItems</t>
-  </si>
-  <si>
-    <t>英雄经验道具id</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5</t>
-  </si>
-  <si>
-    <t>equipLevelupExpGoldRatio</t>
-  </si>
-  <si>
-    <t>装备升级经验对应消耗金币比例</t>
-  </si>
-  <si>
-    <t>equipLevelGrowRatioAttId</t>
-  </si>
-  <si>
-    <t>装备升级成长率attid</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>heroPromoteLevelLimit</t>
-  </si>
-  <si>
-    <t>英雄突破[0-5]队伍等级限制</t>
-  </si>
-  <si>
-    <t>0,1,10,20,35,45</t>
-  </si>
-  <si>
-    <t>heroLevelQualityRatio</t>
-  </si>
-  <si>
-    <t>英雄升级品质参数：N，R，SR，SSR，UR</t>
-  </si>
-  <si>
-    <t>0,0,0.75,1,1.25</t>
-  </si>
-  <si>
-    <t>heroLevelGrowRatioAttId</t>
-  </si>
-  <si>
-    <t>英雄升级成长率attid</t>
-  </si>
-  <si>
     <t>crystalSwallowExpLoss</t>
   </si>
   <si>
@@ -511,17 +547,19 @@
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -538,8 +576,158 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -550,23 +738,16 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="SimSun"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -585,8 +766,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -654,11 +1021,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -682,11 +1291,61 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -759,9 +1418,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1832,19 +2488,19 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="14.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="1" customWidth="1"/>
@@ -1856,7 +2512,7 @@
     <col min="9" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" ht="15.75" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1867,7 +2523,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" ht="57" customHeight="1">
+    <row r="2" ht="57" customHeight="1" spans="1:7">
       <c r="A2" s="5"/>
       <c r="B2" s="4"/>
       <c r="C2" s="6" t="s">
@@ -1886,7 +2542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.1" customHeight="1">
+    <row r="3" ht="14.1" customHeight="1" spans="1:7">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="9" t="s">
@@ -1903,7 +2559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.1" customHeight="1">
+    <row r="4" ht="14.1" customHeight="1" spans="1:7">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="9" t="s">
@@ -1917,10 +2573,10 @@
         <v>11</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.1" customHeight="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="14.1" customHeight="1" spans="1:7">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="9" t="s">
@@ -1937,7 +2593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.1" customHeight="1">
+    <row r="6" ht="14.1" customHeight="1" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="9" t="s">
@@ -1954,7 +2610,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.1" customHeight="1">
+    <row r="7" ht="14.1" customHeight="1" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="12" t="s">
@@ -1971,7 +2627,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.1" customHeight="1">
+    <row r="8" ht="14.1" customHeight="1" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="12" t="s">
@@ -1988,7 +2644,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.1" customHeight="1">
+    <row r="9" ht="14.1" customHeight="1" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="12" t="s">
@@ -2005,7 +2661,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.1" customHeight="1">
+    <row r="10" ht="14.1" customHeight="1" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="12" t="s">
@@ -2022,7 +2678,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1">
+    <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="12" t="s">
@@ -2039,7 +2695,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1">
+    <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="12" t="s">
@@ -2056,7 +2712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1">
+    <row r="13" customHeight="1" spans="1:7">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="12" t="s">
@@ -2073,7 +2729,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1">
+    <row r="14" customHeight="1" spans="1:7">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="12" t="s">
@@ -2090,7 +2746,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1">
+    <row r="15" customHeight="1" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="12" t="s">
@@ -2107,7 +2763,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1">
+    <row r="16" customHeight="1" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="12" t="s">
@@ -2124,7 +2780,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1">
+    <row r="17" customHeight="1" spans="1:8">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="12" t="s">
@@ -2140,8 +2796,9 @@
       <c r="G17" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="14.25" customHeight="1">
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:8">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="12" t="s">
@@ -2152,30 +2809,32 @@
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="14.25" customHeight="1">
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:8">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>52</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="10" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="14.25" customHeight="1">
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:8">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="12" t="s">
@@ -2186,13 +2845,14 @@
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="10" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="14.25" customHeight="1">
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:8">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="12" t="s">
@@ -2203,13 +2863,14 @@
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="10" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="14.25" customHeight="1">
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:8">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="12" t="s">
@@ -2220,30 +2881,32 @@
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="10" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="14.25" customHeight="1">
+        <v>12</v>
+      </c>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:8">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>64</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="10" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="14.25" customHeight="1">
+        <v>64</v>
+      </c>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:8">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="12" t="s">
@@ -2257,61 +2920,62 @@
         <v>7</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="16.5">
+        <v>12</v>
+      </c>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:7">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>69</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="10" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="16.5">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" spans="1:7">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>72</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="16.5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5" spans="1:7">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="10" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="16.5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5" spans="1:7">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="12" t="s">
@@ -2328,7 +2992,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16.5">
+    <row r="29" ht="16.5" spans="1:7">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="12" t="s">
@@ -2342,27 +3006,27 @@
         <v>7</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="16.5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" ht="16.5" spans="1:7">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="10" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="16.5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" ht="16.5" spans="1:7">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="12" t="s">
@@ -2373,13 +3037,13 @@
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="10" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="16.5">
+    <row r="32" ht="16.5" spans="1:7">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="12" t="s">
@@ -2390,13 +3054,13 @@
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="10" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16.5">
+    <row r="33" ht="16.5" spans="1:7">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="12" t="s">
@@ -2407,13 +3071,13 @@
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="16.5">
+    <row r="34" ht="16.5" spans="1:7">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="12" t="s">
@@ -2424,13 +3088,13 @@
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="10" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16.5">
+    <row r="35" ht="16.5" spans="1:7">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="12" t="s">
@@ -2444,33 +3108,49 @@
         <v>45</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="16.5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" ht="16.5" spans="1:7">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" ht="16.5" spans="1:7">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="10" t="s">
-        <v>100</v>
+      <c r="G37" s="10" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -38,6 +38,29 @@
           </rPr>
           <t xml:space="preserve">
 关联EquipLevelup表promoteLimit突破次数限制</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+装备突破属性公式=（装备突破次数对应强度等级*突破属性成长率+突破属性固定值）*品质系数
+成长率和固定值配置在att表内，att的id被EquipEnchant表读取</t>
         </r>
       </text>
     </comment>
@@ -554,10 +577,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -587,14 +610,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,15 +669,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -632,33 +679,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -678,24 +701,30 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,21 +739,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -768,187 +791,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,6 +1045,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1033,24 +1067,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1070,17 +1086,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1100,22 +1128,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1125,145 +1148,145 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2497,7 +2520,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="7"/>

--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -133,7 +133,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="G27" authorId="0">
+    <comment ref="D27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+卡牌突破各属性公式=（卡牌突破强度等级*各突破属性成长率+各突破属性固定值）*卡牌品质系数*各突破属性卡牌职业系数
+关联att表读取卡牌突破属性成长率和固定值。
+关联HeroProfession表读取各英雄职业、各属性的职业系数范围</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -156,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D28" authorId="0">
+    <comment ref="D31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -176,11 +200,11 @@
           <t xml:space="preserve">
 升级属性用公式做
 卡牌升级各属性公式=（卡牌等级*各升级属性成长率+各升级属性固定值）*卡牌品质系数*卡牌职业系数
-公式内取值分别对应配置表att、globalconfig、HeroProfession</t>
+公式内取值分别对应配置表att、globalconfig</t>
         </r>
       </text>
     </comment>
-    <comment ref="G30" authorId="0">
+    <comment ref="G33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -202,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G37" authorId="0">
+    <comment ref="G40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -229,7 +253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="113">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -473,16 +497,43 @@
     <t>heroPromoteLevelLimit</t>
   </si>
   <si>
-    <t>英雄突破[0-5]队伍等级限制</t>
-  </si>
-  <si>
-    <t>0,1,10,20,35,45</t>
+    <t>英雄突破[0-6]队伍等级限制</t>
+  </si>
+  <si>
+    <t>10,30,45,55,60,65,70</t>
+  </si>
+  <si>
+    <t>heroPromoteIntensityRatio</t>
+  </si>
+  <si>
+    <t>英雄突破[0-6]每次强度等级</t>
+  </si>
+  <si>
+    <t>20,40,50,60,70,80,90</t>
+  </si>
+  <si>
+    <t>heroPromoteGrowupId</t>
+  </si>
+  <si>
+    <t>英雄突破成长率attid</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>heroPromoteBaseId</t>
+  </si>
+  <si>
+    <t>英雄突破固定值attid</t>
+  </si>
+  <si>
+    <t>301</t>
   </si>
   <si>
     <t>heroLevelQualityRatio</t>
   </si>
   <si>
-    <t>英雄升级品质参数：N，R，SR，SSR，UR</t>
+    <t>英雄升级和突破品质参数：N，R，SR，SSR，UR</t>
   </si>
   <si>
     <t>0,0,0.75,1,1.25</t>
@@ -494,7 +545,7 @@
     <t>英雄升级成长率attid</t>
   </si>
   <si>
-    <t>20</t>
+    <t>310</t>
   </si>
   <si>
     <t>crystalSwallowExpLoss</t>
@@ -577,10 +628,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -609,38 +660,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,7 +685,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -661,77 +698,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -748,6 +717,88 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -791,7 +842,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,13 +914,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,157 +1016,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,41 +1098,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1098,17 +1117,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1142,16 +1167,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1160,133 +1211,133 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2517,10 +2568,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="7"/>
@@ -2992,7 +3043,7 @@
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>75</v>
@@ -3043,61 +3094,61 @@
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="10" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" ht="16.5" spans="1:7">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="10" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" ht="16.5" spans="1:7">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" ht="16.5" spans="1:7">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="10" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="16.5" spans="1:7">
@@ -3111,7 +3162,7 @@
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>95</v>
@@ -3128,7 +3179,7 @@
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="10" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>98</v>
@@ -3145,27 +3196,78 @@
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="10" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" ht="16.5" spans="1:7">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" ht="16.5" spans="1:7">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" ht="16.5" spans="1:7">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" ht="16.5" spans="1:7">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="10" t="s">
-        <v>103</v>
+      <c r="G40" s="10" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -253,7 +253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="112">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -461,7 +461,7 @@
     <t>装备经验道具id</t>
   </si>
   <si>
-    <t>150,151,152,153,154</t>
+    <t>400,401,402,403,404</t>
   </si>
   <si>
     <t>heroLevelupExpGoldRatio</t>
@@ -554,9 +554,6 @@
     <t>晶石吞噬经验折损率</t>
   </si>
   <si>
-    <t>8000</t>
-  </si>
-  <si>
     <t>crystalLevelupExpGoldRatio</t>
   </si>
   <si>
@@ -569,7 +566,7 @@
     <t>晶石经验道具id</t>
   </si>
   <si>
-    <t>200,201,202,203,204</t>
+    <t>600,601,602,603,604</t>
   </si>
   <si>
     <t>crystalLevelupIntensityRatio</t>
@@ -587,7 +584,7 @@
     <t>晶石升级品质系数</t>
   </si>
   <si>
-    <t>0.7,0.85,1,1.15,1.25</t>
+    <t>0.7,0.85,1,1.15,1.3</t>
   </si>
   <si>
     <t>crystalLevelupRandRatio</t>
@@ -596,7 +593,7 @@
     <t>晶石升级副属性随机区间系数</t>
   </si>
   <si>
-    <t>0.9,1.1</t>
+    <t>0.7,1.1</t>
   </si>
   <si>
     <t>crystalViceAttAddLevel</t>
@@ -620,7 +617,7 @@
     <t>晶石副属性随机到相同属性的次数上限</t>
   </si>
   <si>
-    <t>3</t>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -629,9 +626,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -660,6 +657,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -668,14 +695,52 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
@@ -692,52 +757,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,21 +765,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -773,7 +778,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
@@ -782,25 +786,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -842,7 +839,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,13 +965,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,67 +1007,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,85 +1019,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1096,6 +1093,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1105,20 +1117,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1138,6 +1147,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1153,42 +1173,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1199,10 +1196,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1211,133 +1208,133 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2570,8 +2567,8 @@
   <sheetPr/>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="7"/>
@@ -3128,146 +3125,146 @@
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="10" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" ht="16.5" spans="1:7">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>92</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" ht="16.5" spans="1:7">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="10" t="s">
         <v>45</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" ht="16.5" spans="1:7">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>96</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>97</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" ht="16.5" spans="1:7">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>99</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>100</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="10" t="s">
         <v>52</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" ht="16.5" spans="1:7">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>103</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="10" t="s">
         <v>52</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" ht="16.5" spans="1:7">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>106</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="10" t="s">
         <v>45</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" ht="16.5" spans="1:7">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="10" t="s">
         <v>45</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" ht="16.5" spans="1:7">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>110</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>111</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -657,9 +657,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,25 +672,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -710,6 +700,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
@@ -717,8 +715,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -727,6 +734,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -748,30 +770,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -779,7 +779,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -794,10 +794,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -839,7 +839,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,19 +983,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,139 +1007,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,7 +1019,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1093,26 +1093,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1132,21 +1132,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1154,6 +1139,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1176,17 +1170,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1196,10 +1196,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1208,133 +1208,133 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2568,7 +2568,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="7"/>
@@ -3125,7 +3125,7 @@
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="10" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>56</v>

--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -253,7 +253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="115">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -619,15 +619,24 @@
   <si>
     <t>6</t>
   </si>
+  <si>
+    <t>sweepStageItem</t>
+  </si>
+  <si>
+    <t>扫荡券物品id</t>
+  </si>
+  <si>
+    <t>615</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -657,8 +666,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,14 +689,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,9 +710,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -709,77 +726,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -795,7 +742,69 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -807,12 +816,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -839,7 +848,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,7 +890,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,25 +926,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,133 +1022,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1093,11 +1102,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1117,21 +1132,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1147,7 +1147,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1171,22 +1171,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1196,10 +1205,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1208,133 +1217,133 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2565,10 +2574,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="7"/>
@@ -3267,6 +3276,23 @@
         <v>111</v>
       </c>
     </row>
+    <row r="41" ht="16.5" spans="1:7">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>

--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -226,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G40" authorId="0">
+    <comment ref="G41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -253,7 +253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="118">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -578,22 +578,31 @@
     <t>4</t>
   </si>
   <si>
-    <t>crystalLevelupQualityRatio</t>
-  </si>
-  <si>
-    <t>晶石升级品质系数</t>
+    <t>crystalLevelupMainQualityRatio</t>
+  </si>
+  <si>
+    <t>晶石升级主属性品质系数</t>
   </si>
   <si>
     <t>0.7,0.85,1,1.15,1.3</t>
   </si>
   <si>
+    <t>crystalLevelupViceQualityRatio</t>
+  </si>
+  <si>
+    <t>晶石升级副属性品质系数</t>
+  </si>
+  <si>
+    <t>0.6,0.7,0.8,0.9,1</t>
+  </si>
+  <si>
     <t>crystalLevelupRandRatio</t>
   </si>
   <si>
     <t>晶石升级副属性随机区间系数</t>
   </si>
   <si>
-    <t>0.7,1.1</t>
+    <t>0.8,1.1</t>
   </si>
   <si>
     <t>crystalViceAttAddLevel</t>
@@ -634,10 +643,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -666,21 +675,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Helvetica Neue"/>
@@ -697,7 +691,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,6 +719,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
@@ -717,8 +742,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -733,80 +804,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -848,6 +857,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -860,7 +893,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,7 +917,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,49 +959,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,7 +971,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,73 +1019,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,7 +1037,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,16 +1111,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1134,10 +1143,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1146,32 +1153,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1193,9 +1176,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1205,10 +1214,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1217,133 +1226,133 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2574,10 +2583,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="7"/>
@@ -3236,7 +3245,7 @@
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="10" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>106</v>
@@ -3256,24 +3265,24 @@
         <v>45</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" ht="16.5" spans="1:7">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="10" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" ht="16.5" spans="1:7">
@@ -3291,6 +3300,23 @@
       </c>
       <c r="G41" s="10" t="s">
         <v>114</v>
+      </c>
+    </row>
+    <row r="42" ht="16.5" spans="1:7">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29560" windowHeight="17020"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="D20" authorId="0">
+    <comment ref="D17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -37,13 +37,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-升级属性用公式做
-装备属性成长数值公式=(装备等级*各属性成长率+各属性固定值)*装备品质参数
-公式内取值分别对应配置表att、global</t>
+关联EquipLevelup表promoteLimit突破次数限制</t>
         </r>
       </text>
     </comment>
-    <comment ref="G22" authorId="0">
+    <comment ref="D18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -61,11 +59,12 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-只有升级增加的属性，即填了成长率的属性才会乘品质、职业系数</t>
+装备突破属性公式=（装备突破次数对应强度等级*突破属性成长率+突破属性固定值）*品质系数
+成长率和固定值配置在att表内，att的id被EquipEnchant表读取</t>
         </r>
       </text>
     </comment>
-    <comment ref="D23" authorId="0">
+    <comment ref="G18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -83,13 +82,12 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-升级属性用公式做
-卡牌升级各属性公式=（卡牌等级*各升级属性成长率+各升级属性固定值）*卡牌品质系数*卡牌职业系数
-公式内取值分别对应配置表att、global、HeroProfession</t>
+包括1级就有的突破属性
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="G25" authorId="0">
+    <comment ref="G24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -111,17 +109,182 @@
         </r>
       </text>
     </comment>
+    <comment ref="D25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+升级属性用公式做
+装备属性成长数值公式=(装备等级*各属性成长率+各属性固定值)*装备品质参数
+公式内取值分别对应配置表att、globalconfig</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+卡牌突破各属性公式=（卡牌突破强度等级*各突破属性成长率+各突破属性固定值）*卡牌品质系数*各突破属性卡牌职业系数
+关联att表读取卡牌突破属性成长率和固定值。
+关联HeroProfession表读取各英雄职业、各属性的职业系数范围</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+只有升级增加的属性，即填了成长率的属性才会乘品质、职业系数
+目前只有3个品质，但要求填5个，所以前两个低品质填0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+升级属性用公式做
+卡牌升级各属性公式=（卡牌等级*各升级属性成长率+各升级属性固定值）*卡牌品质系数*卡牌职业系数
+公式内取值分别对应配置表att、globalconfig</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1点经验消耗10金币</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+注意不能小于2</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="118">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
   <si>
-    <t>导出字段名</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导出字段名（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开头字母要求必须小写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
   </si>
   <si>
     <t>导出字段描述</t>
@@ -130,10 +293,13 @@
     <t>导出字段控制</t>
   </si>
   <si>
-    <t>导出字段类型</t>
-  </si>
-  <si>
-    <t>导出字段值</t>
+    <t>导出字段类型
+类型是number的可以直接填小数
+属性公式系数目前都用int32</t>
+  </si>
+  <si>
+    <t>导出字段值
+数组的用英文逗号分开</t>
   </si>
   <si>
     <t>id</t>
@@ -145,7 +311,19 @@
     <t>1</t>
   </si>
   <si>
-    <t>ArmorRatio</t>
+    <t>demoSceneRadius</t>
+  </si>
+  <si>
+    <t>Demo战斗场景半径，单位米(Demo完成后删除)</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>armorRatio</t>
   </si>
   <si>
     <t>护甲减免系数</t>
@@ -154,7 +332,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>DmgRatio</t>
+    <t>dmgRatio</t>
   </si>
   <si>
     <t>总伤害率系数</t>
@@ -163,7 +341,7 @@
     <t>10000</t>
   </si>
   <si>
-    <t>CritRatio</t>
+    <t>critRatio</t>
   </si>
   <si>
     <t>暴击率系数</t>
@@ -172,13 +350,13 @@
     <t>4000</t>
   </si>
   <si>
-    <t>CritIncRatio</t>
+    <t>critIncRatio</t>
   </si>
   <si>
     <t>暴击倍数加成系数</t>
   </si>
   <si>
-    <t>HealRatio</t>
+    <t>healRatio</t>
   </si>
   <si>
     <t>治疗量系数</t>
@@ -187,31 +365,31 @@
     <t>7000</t>
   </si>
   <si>
-    <t>EffectHitRatio</t>
+    <t>effectHitRatio</t>
   </si>
   <si>
     <t>效果命中系数</t>
   </si>
   <si>
-    <t>EffectResistRatio</t>
+    <t>effectResistRatio</t>
   </si>
   <si>
     <t>效果抵抗系数</t>
   </si>
   <si>
-    <t>ElementDmgRatio</t>
+    <t>elementDmgRatio</t>
   </si>
   <si>
     <t>各伤害类型加成系数</t>
   </si>
   <si>
-    <t>ElementResRatio</t>
+    <t>elementResRatio</t>
   </si>
   <si>
     <t>各伤害类型抗性系数</t>
   </si>
   <si>
-    <t>MaterialContainerMax</t>
+    <t>materialContainerMax</t>
   </si>
   <si>
     <t>材料与消耗背包容量上限，超过此容量无法获得物品</t>
@@ -220,13 +398,13 @@
     <t>200</t>
   </si>
   <si>
-    <t>EquipContainerMax</t>
+    <t>equipContainerMax</t>
   </si>
   <si>
     <t>装备背包容量上限，超过此容量无法获得物品</t>
   </si>
   <si>
-    <t>CrystalContainerMax</t>
+    <t>crystalContainerMax</t>
   </si>
   <si>
     <t>晶石容量上限，超过此容量无法获得物品</t>
@@ -235,94 +413,163 @@
     <t>1000</t>
   </si>
   <si>
-    <t>EquipPromoteLevelLimit</t>
-  </si>
-  <si>
-    <t>装备突破队伍等级限制</t>
+    <t>equipPromoteLevelLimit</t>
+  </si>
+  <si>
+    <t>装备突破[0-7]队伍等级限制</t>
   </si>
   <si>
     <t>[]int32</t>
   </si>
   <si>
-    <t>10,20,30,40,50</t>
-  </si>
-  <si>
-    <t>EquipLevelQualityRatio</t>
-  </si>
-  <si>
-    <t>装备升级品质参数，100%=10000</t>
-  </si>
-  <si>
-    <t>5000,7500,1,12500,15000</t>
-  </si>
-  <si>
-    <t>EquipSwallowExpLoss</t>
+    <t>0,10,30,45,55,60,65,70</t>
+  </si>
+  <si>
+    <t>equipPromoteIntensityRatio</t>
+  </si>
+  <si>
+    <t>装备突破[0-7]每次强度等级</t>
+  </si>
+  <si>
+    <t>1,20,40,50,60,70,80,90</t>
+  </si>
+  <si>
+    <t>equipLevelQualityRatio</t>
+  </si>
+  <si>
+    <t>装备升级和突破品质参数</t>
+  </si>
+  <si>
+    <t>[]number</t>
+  </si>
+  <si>
+    <t>0.5,0.75,1,1.25,1.5</t>
+  </si>
+  <si>
+    <t>equipSwallowExpLoss</t>
   </si>
   <si>
     <t>装备吞噬经验折损率</t>
   </si>
   <si>
-    <t>EquipSwallowGoldLoss</t>
-  </si>
-  <si>
-    <t>装备吞噬金币折损率</t>
-  </si>
-  <si>
-    <t>EquipLevelGrowRatioAttId</t>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>equipExpItems</t>
+  </si>
+  <si>
+    <t>装备经验道具id</t>
+  </si>
+  <si>
+    <t>400,401,402,403,404</t>
+  </si>
+  <si>
+    <t>heroLevelupExpGoldRatio</t>
+  </si>
+  <si>
+    <t>英雄升级经验对应消耗金币比例</t>
+  </si>
+  <si>
+    <t>heroExpItems</t>
+  </si>
+  <si>
+    <t>英雄经验道具id</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>equipLevelupExpGoldRatio</t>
+  </si>
+  <si>
+    <t>装备升级经验对应消耗金币比例</t>
+  </si>
+  <si>
+    <t>equipLevelGrowRatioAttId</t>
   </si>
   <si>
     <t>装备升级成长率attid</t>
   </si>
   <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>HeroPromoteLevelLimit</t>
-  </si>
-  <si>
-    <t>英雄突破队伍等级限制</t>
-  </si>
-  <si>
-    <t>1,10,20,35,45</t>
-  </si>
-  <si>
-    <t>HeroLevelQualityRatio</t>
-  </si>
-  <si>
-    <t>英雄升级品质参数，100%=10000</t>
-  </si>
-  <si>
-    <t>0,0,7500,10000,12500</t>
-  </si>
-  <si>
-    <t>HeroLevelGrowRatioAttId</t>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>heroPromoteLevelLimit</t>
+  </si>
+  <si>
+    <t>英雄突破[0-6]队伍等级限制</t>
+  </si>
+  <si>
+    <t>10,30,45,55,60,65,70</t>
+  </si>
+  <si>
+    <t>heroPromoteIntensityRatio</t>
+  </si>
+  <si>
+    <t>英雄突破[0-6]每次强度等级</t>
+  </si>
+  <si>
+    <t>20,40,50,60,70,80,90</t>
+  </si>
+  <si>
+    <t>heroPromoteGrowupId</t>
+  </si>
+  <si>
+    <t>英雄突破成长率attid</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>heroPromoteBaseId</t>
+  </si>
+  <si>
+    <t>英雄突破固定值attid</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>heroLevelQualityRatio</t>
+  </si>
+  <si>
+    <t>英雄升级和突破品质参数：N，R，SR，SSR，UR</t>
+  </si>
+  <si>
+    <t>0,0,0.75,1,1.25</t>
+  </si>
+  <si>
+    <t>heroLevelGrowRatioAttId</t>
   </si>
   <si>
     <t>英雄升级成长率attid</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>CrystalSwallowExpLoss</t>
+    <t>310</t>
+  </si>
+  <si>
+    <t>crystalSwallowExpLoss</t>
   </si>
   <si>
     <t>晶石吞噬经验折损率</t>
   </si>
   <si>
-    <t>8000</t>
-  </si>
-  <si>
-    <t>CrystalLevelupExpGoldRatio</t>
+    <t>crystalLevelupExpGoldRatio</t>
   </si>
   <si>
     <t>晶石升级经验对应消耗金币比例</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>CrystalLevelupIntensityRatio</t>
+    <t>crystalExpItems</t>
+  </si>
+  <si>
+    <t>晶石经验道具id</t>
+  </si>
+  <si>
+    <t>600,601,602,603,604</t>
+  </si>
+  <si>
+    <t>crystalLevelupIntensityRatio</t>
   </si>
   <si>
     <t>晶石升级强度系数</t>
@@ -331,31 +578,64 @@
     <t>4</t>
   </si>
   <si>
-    <t>CrystalLevelupQualityRatio</t>
-  </si>
-  <si>
-    <t>晶石升级品质系数</t>
-  </si>
-  <si>
-    <t>7000,8500,10000,11500,12500,14500</t>
-  </si>
-  <si>
-    <t>CrystalLevelupRandRatio</t>
+    <t>crystalLevelupMainQualityRatio</t>
+  </si>
+  <si>
+    <t>晶石升级主属性品质系数</t>
+  </si>
+  <si>
+    <t>0.7,0.85,1,1.15,1.3</t>
+  </si>
+  <si>
+    <t>crystalLevelupViceQualityRatio</t>
+  </si>
+  <si>
+    <t>晶石升级副属性品质系数</t>
+  </si>
+  <si>
+    <t>0.6,0.7,0.8,0.9,1</t>
+  </si>
+  <si>
+    <t>crystalLevelupRandRatio</t>
   </si>
   <si>
     <t>晶石升级副属性随机区间系数</t>
   </si>
   <si>
-    <t>9000,11000</t>
-  </si>
-  <si>
-    <t>CrystalViceAttAddLevel</t>
+    <t>0.8,1.1</t>
+  </si>
+  <si>
+    <t>crystalViceAttAddLevel</t>
   </si>
   <si>
     <t>晶石升级到3，6，9，12，15级时强化副属性</t>
   </si>
   <si>
     <t>3,6,9,12,15</t>
+  </si>
+  <si>
+    <t>crystalLevelupQualityLimit</t>
+  </si>
+  <si>
+    <t>各品质晶石强化等级上限</t>
+  </si>
+  <si>
+    <t>crystalLevelupAssistantNumber</t>
+  </si>
+  <si>
+    <t>晶石副属性随机到相同属性的次数上限</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>sweepStageItem</t>
+  </si>
+  <si>
+    <t>扫荡券物品id</t>
+  </si>
+  <si>
+    <t>615</t>
   </si>
 </sst>
 </file>
@@ -363,15 +643,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
@@ -383,7 +669,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,104 +697,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -517,9 +712,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,6 +734,107 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -554,7 +857,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,7 +881,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,19 +947,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,43 +995,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,91 +1025,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,15 +1111,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -832,11 +1126,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -852,6 +1170,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,251 +1208,232 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -1428,7 +1738,7 @@
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1718,7 +2028,7 @@
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1994,7 +2304,7 @@
           <a:miter lim="400000"/>
         </a:ln>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2271,23 +2581,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="14.3461538461538" style="1" customWidth="1"/>
+    <col min="1" max="2" width="14.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.5384615384615" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1538461538462" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1730769230769" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="28.75" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="6" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:7">
@@ -2307,472 +2618,705 @@
       <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="14" customHeight="1" spans="1:7">
+    <row r="3" ht="14.1" customHeight="1" spans="1:7">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="14" customHeight="1" spans="1:7">
+    <row r="4" ht="14.1" customHeight="1" spans="1:7">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="10" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" ht="14" customHeight="1" spans="1:7">
+      <c r="G4" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="14.1" customHeight="1" spans="1:7">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="10" t="s">
+      <c r="D5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" ht="14" customHeight="1" spans="1:7">
+      <c r="G5" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="14.1" customHeight="1" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="8" t="s">
+      <c r="D6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" ht="14" customHeight="1" spans="1:7">
+      <c r="G6" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" ht="14.1" customHeight="1" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="8" t="s">
+      <c r="D7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" ht="14" customHeight="1" spans="1:7">
+      <c r="G7" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" ht="14.1" customHeight="1" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="8" t="s">
+      <c r="C8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" ht="14" customHeight="1" spans="1:7">
+      <c r="G8" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" ht="14.1" customHeight="1" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="8" t="s">
+      <c r="D9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:7">
+      <c r="G9" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" ht="14.1" customHeight="1" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="8" t="s">
+      <c r="C10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>14</v>
+      <c r="G10" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="8" t="s">
+      <c r="C11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>14</v>
+      <c r="G11" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="8" t="s">
+      <c r="C12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="G12" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:7">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="8" t="s">
+      <c r="C13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="G13" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:7">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="C14" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="8" t="s">
+      <c r="D14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="G14" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="C15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
+    </row>
+    <row r="16" customHeight="1" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="8" t="s">
+      <c r="D16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="E16" s="7"/>
+      <c r="F16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="17" customHeight="1" spans="1:8">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="8" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="G17" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:8">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="C18" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="D18" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:8">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="C19" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:8">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="16.8" spans="1:7">
+      <c r="C20" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:8">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="16.8" spans="1:7">
+      <c r="C21" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:8">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="16.8" spans="1:7">
+      <c r="C22" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:8">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="16.8" spans="1:7">
+      <c r="C23" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:8">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="8" t="s">
+      <c r="C24" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="16.8" spans="1:7">
+      <c r="G24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:7">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="8" t="s">
+      <c r="C25" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="16.8" spans="1:7">
+      <c r="G25" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" spans="1:7">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="8" t="s">
+      <c r="C26" s="12" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="16.8" spans="1:7">
+      <c r="D26" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5" spans="1:7">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" s="8" t="s">
+      <c r="C27" s="12" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="16.8" spans="1:7">
+      <c r="D27" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5" spans="1:7">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" s="8" t="s">
+      <c r="C28" s="12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="16.8" spans="1:7">
+      <c r="D28" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" ht="16.5" spans="1:7">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29" s="8" t="s">
+      <c r="C29" s="12" t="s">
         <v>79</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" ht="16.5" spans="1:7">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" ht="16.5" spans="1:7">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" ht="16.5" spans="1:7">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" ht="16.5" spans="1:7">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" ht="16.5" spans="1:7">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" ht="16.5" spans="1:7">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" ht="16.5" spans="1:7">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" ht="16.5" spans="1:7">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" ht="16.5" spans="1:7">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" ht="16.5" spans="1:7">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" ht="16.5" spans="1:7">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" ht="16.5" spans="1:7">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" ht="16.5" spans="1:7">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="29560" windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="D17" authorId="0">
+    <comment ref="D18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -41,7 +41,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D18" authorId="0">
+    <comment ref="D19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G18" authorId="0">
+    <comment ref="G19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G24" authorId="0">
+    <comment ref="G25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -109,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D25" authorId="0">
+    <comment ref="D26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D27" authorId="0">
+    <comment ref="D28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -157,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G30" authorId="0">
+    <comment ref="G31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -180,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D31" authorId="0">
+    <comment ref="D32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -204,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G33" authorId="0">
+    <comment ref="G34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -226,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G41" authorId="0">
+    <comment ref="G42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -253,7 +253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -323,6 +323,12 @@
     <t>10</t>
   </si>
   <si>
+    <t>actRestFrameTime</t>
+  </si>
+  <si>
+    <t>COM确定行动时静帧时间(移动无效)</t>
+  </si>
+  <si>
     <t>armorRatio</t>
   </si>
   <si>
@@ -636,6 +642,15 @@
   </si>
   <si>
     <t>615</t>
+  </si>
+  <si>
+    <t>mailExpireTime</t>
+  </si>
+  <si>
+    <t>邮件过期时间30天（秒）</t>
+  </si>
+  <si>
+    <t>2592000</t>
   </si>
 </sst>
 </file>
@@ -643,12 +658,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -676,9 +691,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -690,30 +720,22 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -735,15 +757,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -757,25 +788,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,16 +802,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -805,7 +812,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -819,22 +826,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -857,7 +868,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,7 +922,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,7 +946,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,151 +1048,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,32 +1122,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1146,15 +1145,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1174,26 +1164,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1208,151 +1178,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1365,20 +1376,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1386,54 +1397,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2581,12 +2592,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="7"/>
@@ -2624,699 +2635,733 @@
       <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="14.1" customHeight="1" spans="1:7">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="14.1" customHeight="1" spans="1:7">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" ht="14.1" customHeight="1" spans="1:7">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>15</v>
+      <c r="E5" s="9"/>
+      <c r="F5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" ht="14.1" customHeight="1" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" ht="14.1" customHeight="1" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>20</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" ht="14.1" customHeight="1" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" ht="14.1" customHeight="1" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>26</v>
+      <c r="G9" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="14.1" customHeight="1" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:7">
+    </row>
+    <row r="11" ht="14.1" customHeight="1" spans="1:7">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="7"/>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>18</v>
+      <c r="G11" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="10" t="s">
-        <v>18</v>
+      <c r="G12" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:7">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>18</v>
+      <c r="G13" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:7">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>36</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>37</v>
+      <c r="G14" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="E15" s="7"/>
+      <c r="F15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="7"/>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:8">
+      <c r="G16" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:7">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="13"/>
     </row>
     <row r="18" customHeight="1" spans="1:8">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="G18" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="H18" s="13"/>
     </row>
     <row r="19" customHeight="1" spans="1:8">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="E19" s="7"/>
+      <c r="F19" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>53</v>
       </c>
       <c r="H19" s="13"/>
     </row>
     <row r="20" customHeight="1" spans="1:8">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="G20" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>56</v>
       </c>
       <c r="H20" s="13"/>
     </row>
     <row r="21" customHeight="1" spans="1:8">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="E21" s="7"/>
+      <c r="F21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>59</v>
       </c>
       <c r="H21" s="13"/>
     </row>
     <row r="22" customHeight="1" spans="1:8">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="E22" s="7"/>
+      <c r="F22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>12</v>
       </c>
       <c r="H22" s="13"/>
     </row>
     <row r="23" customHeight="1" spans="1:8">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>63</v>
       </c>
       <c r="E23" s="7"/>
-      <c r="F23" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>64</v>
+      <c r="F23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="H23" s="13"/>
     </row>
     <row r="24" customHeight="1" spans="1:8">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="E24" s="7"/>
+      <c r="F24" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="H24" s="13"/>
     </row>
-    <row r="25" customHeight="1" spans="1:7">
+    <row r="25" customHeight="1" spans="1:8">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>68</v>
       </c>
       <c r="E25" s="7"/>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" ht="16.5" spans="1:7">
+      <c r="G25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:7">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="E26" s="7"/>
+      <c r="F26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" ht="16.5" spans="1:7">
+    </row>
+    <row r="27" ht="16.8" spans="1:7">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="E27" s="7"/>
+      <c r="F27" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" ht="16.5" spans="1:7">
+    </row>
+    <row r="28" ht="16.8" spans="1:7">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="E28" s="7"/>
+      <c r="F28" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" ht="16.5" spans="1:7">
+    </row>
+    <row r="29" ht="16.8" spans="1:7">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="E29" s="7"/>
+      <c r="F29" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" ht="16.5" spans="1:7">
+    </row>
+    <row r="30" ht="16.8" spans="1:7">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="E30" s="7"/>
+      <c r="F30" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" ht="16.5" spans="1:7">
+    </row>
+    <row r="31" ht="16.8" spans="1:7">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="E31" s="7"/>
+      <c r="F31" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" ht="16.5" spans="1:7">
+    </row>
+    <row r="32" ht="16.8" spans="1:7">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="E32" s="7"/>
+      <c r="F32" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" ht="16.5" spans="1:7">
+    </row>
+    <row r="33" ht="16.8" spans="1:7">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>91</v>
       </c>
       <c r="E33" s="7"/>
-      <c r="F33" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" ht="16.5" spans="1:7">
+      <c r="F33" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" ht="16.8" spans="1:7">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>93</v>
       </c>
       <c r="E34" s="7"/>
-      <c r="F34" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" ht="16.5" spans="1:7">
+      <c r="F34" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" ht="16.8" spans="1:7">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="E35" s="7"/>
+      <c r="F35" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" ht="16.5" spans="1:7">
+    </row>
+    <row r="36" ht="16.8" spans="1:7">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="E36" s="7"/>
+      <c r="F36" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" ht="16.5" spans="1:7">
+    </row>
+    <row r="37" ht="16.8" spans="1:7">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="E37" s="7"/>
+      <c r="F37" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G37" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" ht="16.5" spans="1:7">
+    </row>
+    <row r="38" ht="16.8" spans="1:7">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="E38" s="7"/>
+      <c r="F38" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" ht="16.5" spans="1:7">
+    </row>
+    <row r="39" ht="16.8" spans="1:7">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="E39" s="7"/>
+      <c r="F39" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G39" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" ht="16.5" spans="1:7">
+    </row>
+    <row r="40" ht="16.8" spans="1:7">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="E40" s="7"/>
+      <c r="F40" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41" ht="16.5" spans="1:7">
+    </row>
+    <row r="41" ht="16.8" spans="1:7">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="9" t="s">
         <v>113</v>
       </c>
       <c r="E41" s="7"/>
-      <c r="F41" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" ht="16.5" spans="1:7">
+      <c r="F41" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" ht="16.8" spans="1:7">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="E42" s="7"/>
+      <c r="F42" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="10" t="s">
+    </row>
+    <row r="43" ht="16.8" spans="1:7">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G42" s="10" t="s">
-        <v>117</v>
+      <c r="G43" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="16.8" spans="1:7">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29560" windowHeight="17020"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="D18" authorId="0">
+    <comment ref="D20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -41,7 +41,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="0">
+    <comment ref="D21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G19" authorId="0">
+    <comment ref="G21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G25" authorId="0">
+    <comment ref="G27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -109,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D26" authorId="0">
+    <comment ref="D28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D28" authorId="0">
+    <comment ref="D30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -157,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G31" authorId="0">
+    <comment ref="G33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -180,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D32" authorId="0">
+    <comment ref="D34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -204,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G34" authorId="0">
+    <comment ref="G36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -226,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G42" authorId="0">
+    <comment ref="G44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -253,7 +253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="129">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -329,6 +329,15 @@
     <t>COM确定行动时静帧时间(移动无效)</t>
   </si>
   <si>
+    <t>moveReadyTime</t>
+  </si>
+  <si>
+    <t>开始移动前的准备时间</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
     <t>armorRatio</t>
   </si>
   <si>
@@ -395,6 +404,18 @@
     <t>各伤害类型抗性系数</t>
   </si>
   <si>
+    <t>damageRange</t>
+  </si>
+  <si>
+    <t>伤害浮动区间系数</t>
+  </si>
+  <si>
+    <t>[]number</t>
+  </si>
+  <si>
+    <t>0.95,1.05</t>
+  </si>
+  <si>
     <t>materialContainerMax</t>
   </si>
   <si>
@@ -444,9 +465,6 @@
   </si>
   <si>
     <t>装备升级和突破品质参数</t>
-  </si>
-  <si>
-    <t>[]number</t>
   </si>
   <si>
     <t>0.5,0.75,1,1.25,1.5</t>
@@ -658,12 +676,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -690,45 +708,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -750,16 +732,91 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -774,7 +831,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -796,54 +853,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FF00B0F0"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="SimSun"/>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -868,19 +890,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,25 +914,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,25 +950,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,43 +974,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,13 +992,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,7 +1004,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,13 +1058,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1125,26 +1147,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1164,6 +1183,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1175,6 +1203,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1204,166 +1241,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1376,20 +1398,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1397,54 +1419,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2592,22 +2614,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="14.375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="14.3666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.45" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.0916666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.45" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.725" style="1" customWidth="1"/>
     <col min="8" max="8" width="6" style="1" customWidth="1"/>
     <col min="9" max="16384" width="6" style="1"/>
   </cols>
@@ -2635,318 +2657,316 @@
       <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="14.1" customHeight="1" spans="1:7">
+    <row r="3" ht="14.15" customHeight="1" spans="1:7">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="14.1" customHeight="1" spans="1:7">
+    <row r="4" ht="14.15" customHeight="1" spans="1:7">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="12" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="14.1" customHeight="1" spans="1:7">
+    <row r="5" ht="14.15" customHeight="1" spans="1:7">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="12" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="14.1" customHeight="1" spans="1:7">
+    <row r="6" ht="14.15" customHeight="1" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="12" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" ht="14.1" customHeight="1" spans="1:7">
+    <row r="7" ht="14.15" customHeight="1" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="12" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" ht="14.1" customHeight="1" spans="1:7">
+    <row r="8" ht="14.15" customHeight="1" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" ht="14.1" customHeight="1" spans="1:7">
+    <row r="9" ht="14.15" customHeight="1" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" ht="14.1" customHeight="1" spans="1:7">
+      <c r="G9" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" ht="14.15" customHeight="1" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="12" t="s">
         <v>27</v>
       </c>
+      <c r="D10" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" ht="14.1" customHeight="1" spans="1:7">
+      <c r="G10" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" ht="14.15" customHeight="1" spans="1:7">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="10" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="7"/>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:7">
+      <c r="G11" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" ht="14.15" customHeight="1" spans="1:7">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="C12" s="12" t="s">
         <v>32</v>
       </c>
+      <c r="D12" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>20</v>
+      <c r="G12" s="10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:7">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="C13" s="12" t="s">
         <v>34</v>
       </c>
+      <c r="D13" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>20</v>
+      <c r="G13" s="10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:7">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="12" t="s">
         <v>36</v>
       </c>
+      <c r="D14" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>20</v>
+      <c r="G14" s="10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="9" t="s">
+      <c r="C15" s="12" t="s">
         <v>38</v>
       </c>
+      <c r="D15" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>39</v>
+      <c r="G15" s="10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="10" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="7"/>
-      <c r="F16" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>39</v>
+      <c r="F16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:7">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>43</v>
+      <c r="C17" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:8">
+      <c r="G17" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:7">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="9" t="s">
+      <c r="C18" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:8">
+    </row>
+    <row r="19" customHeight="1" spans="1:7">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="10" t="s">
         <v>50</v>
       </c>
       <c r="E19" s="7"/>
-      <c r="F19" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="9" t="s">
+      <c r="F19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="13"/>
     </row>
     <row r="20" customHeight="1" spans="1:8">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="10" t="s">
         <v>53</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="10" t="s">
         <v>55</v>
       </c>
       <c r="H20" s="13"/>
@@ -2954,17 +2974,17 @@
     <row r="21" customHeight="1" spans="1:8">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="10" t="s">
         <v>57</v>
       </c>
       <c r="E21" s="7"/>
-      <c r="F21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="9" t="s">
+      <c r="F21" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>58</v>
       </c>
       <c r="H21" s="13"/>
@@ -2972,17 +2992,17 @@
     <row r="22" customHeight="1" spans="1:8">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E22" s="7"/>
-      <c r="F22" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="9" t="s">
+      <c r="F22" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>61</v>
       </c>
       <c r="H22" s="13"/>
@@ -2990,378 +3010,414 @@
     <row r="23" customHeight="1" spans="1:8">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="10" t="s">
         <v>63</v>
       </c>
       <c r="E23" s="7"/>
-      <c r="F23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>12</v>
+      <c r="F23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="H23" s="13"/>
     </row>
     <row r="24" customHeight="1" spans="1:8">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="9" t="s">
+      <c r="C24" s="12" t="s">
         <v>65</v>
       </c>
+      <c r="D24" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="E24" s="7"/>
-      <c r="F24" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>66</v>
+      <c r="F24" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="H24" s="13"/>
     </row>
     <row r="25" customHeight="1" spans="1:8">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="9" t="s">
+      <c r="C25" s="12" t="s">
         <v>68</v>
       </c>
+      <c r="D25" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="E25" s="7"/>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H25" s="13"/>
     </row>
-    <row r="26" customHeight="1" spans="1:7">
+    <row r="26" customHeight="1" spans="1:8">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="9" t="s">
+      <c r="C26" s="12" t="s">
         <v>70</v>
       </c>
+      <c r="D26" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="E26" s="7"/>
-      <c r="F26" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" ht="16.8" spans="1:7">
+      <c r="F26" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:8">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="9" t="s">
+      <c r="C27" s="12" t="s">
         <v>73</v>
       </c>
+      <c r="D27" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="E27" s="7"/>
-      <c r="F27" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" ht="16.8" spans="1:7">
+      <c r="F27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:7">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="10" t="s">
         <v>76</v>
       </c>
       <c r="E28" s="7"/>
-      <c r="F28" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" s="9" t="s">
+      <c r="F28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="29" ht="16.8" spans="1:7">
+    <row r="29" ht="16.5" spans="1:7">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="10" t="s">
         <v>79</v>
       </c>
       <c r="E29" s="7"/>
-      <c r="F29" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="9" t="s">
+      <c r="F29" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="30" ht="16.8" spans="1:7">
+    <row r="30" ht="16.5" spans="1:7">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="10" t="s">
         <v>82</v>
       </c>
       <c r="E30" s="7"/>
-      <c r="F30" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="9" t="s">
+      <c r="F30" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="31" ht="16.8" spans="1:7">
+    <row r="31" ht="16.5" spans="1:7">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="10" t="s">
         <v>85</v>
       </c>
       <c r="E31" s="7"/>
-      <c r="F31" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G31" s="9" t="s">
+      <c r="F31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" ht="16.8" spans="1:7">
+    <row r="32" ht="16.5" spans="1:7">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E32" s="7"/>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="33" ht="16.8" spans="1:7">
+    <row r="33" ht="16.5" spans="1:7">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="10" t="s">
         <v>91</v>
       </c>
       <c r="E33" s="7"/>
-      <c r="F33" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" ht="16.8" spans="1:7">
+      <c r="F33" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" ht="16.5" spans="1:7">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="9" t="s">
+      <c r="C34" s="12" t="s">
         <v>93</v>
       </c>
+      <c r="D34" s="10" t="s">
+        <v>94</v>
+      </c>
       <c r="E34" s="7"/>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" ht="16.8" spans="1:7">
+      <c r="G34" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" ht="16.5" spans="1:7">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>95</v>
+      <c r="C35" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="E35" s="7"/>
-      <c r="F35" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" ht="16.8" spans="1:7">
+      <c r="F35" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" ht="16.5" spans="1:7">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36" s="9" t="s">
+      <c r="C36" s="12" t="s">
         <v>98</v>
       </c>
+      <c r="D36" s="10" t="s">
+        <v>99</v>
+      </c>
       <c r="E36" s="7"/>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" ht="16.8" spans="1:7">
+      <c r="G36" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" ht="16.5" spans="1:7">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="10" t="s">
         <v>101</v>
       </c>
       <c r="E37" s="7"/>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="38" ht="16.8" spans="1:7">
+    <row r="38" ht="16.5" spans="1:7">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="10" t="s">
         <v>104</v>
       </c>
       <c r="E38" s="7"/>
-      <c r="F38" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G38" s="9" t="s">
+      <c r="F38" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="39" ht="16.8" spans="1:7">
+    <row r="39" ht="16.5" spans="1:7">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="10" t="s">
         <v>107</v>
       </c>
       <c r="E39" s="7"/>
-      <c r="F39" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G39" s="9" t="s">
+      <c r="F39" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="40" ht="16.8" spans="1:7">
+    <row r="40" ht="16.5" spans="1:7">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="10" t="s">
         <v>110</v>
       </c>
       <c r="E40" s="7"/>
-      <c r="F40" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G40" s="9" t="s">
+      <c r="F40" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" s="10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="41" ht="16.8" spans="1:7">
+    <row r="41" ht="16.5" spans="1:7">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="10" t="s">
         <v>113</v>
       </c>
       <c r="E41" s="7"/>
-      <c r="F41" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42" ht="16.8" spans="1:7">
+      <c r="F41" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" ht="16.5" spans="1:7">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
-      <c r="C42" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D42" s="9" t="s">
+      <c r="C42" s="12" t="s">
         <v>115</v>
       </c>
+      <c r="D42" s="10" t="s">
+        <v>116</v>
+      </c>
       <c r="E42" s="7"/>
-      <c r="F42" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" ht="16.8" spans="1:7">
+      <c r="F42" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" ht="16.5" spans="1:7">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" s="1" customFormat="1" ht="16.8" spans="1:7">
+    </row>
+    <row r="44" ht="16.5" spans="1:7">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="10" t="s">
         <v>121</v>
       </c>
       <c r="E44" s="7"/>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G44" s="10" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="45" ht="16.5" spans="1:7">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" ht="16.5" spans="1:7">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EC39C9-52DF-4360-A0C2-AA86B6DB4BB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -14,18 +20,19 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="D20" authorId="0">
+    <comment ref="D21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -34,6 +41,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -41,13 +49,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D21" authorId="0">
+    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -56,6 +65,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -64,13 +74,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="G21" authorId="0">
+    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -79,6 +90,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -87,13 +99,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="G27" authorId="0">
+    <comment ref="G28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -102,6 +115,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -109,13 +123,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D28" authorId="0">
+    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -124,6 +139,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -133,13 +149,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0">
+    <comment ref="D31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -148,6 +165,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -157,13 +175,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="G33" authorId="0">
+    <comment ref="G34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -172,6 +191,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -180,13 +200,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D34" authorId="0">
+    <comment ref="D35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -195,6 +216,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -204,13 +226,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="G36" authorId="0">
+    <comment ref="G37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -219,6 +242,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -226,13 +250,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="G44" authorId="0">
+    <comment ref="G45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -241,6 +266,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -253,7 +279,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="133">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -670,18 +696,28 @@
   <si>
     <t>2592000</t>
   </si>
+  <si>
+    <t>0.5</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动失败时，COM条重置位置%(COM左侧作为起始)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>actFailComReset</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -698,157 +734,14 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -861,15 +754,22 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="SimSun"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -888,194 +788,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1143,251 +857,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1417,57 +889,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -1540,6 +965,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2610,31 +2038,31 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="14.3666666666667" style="1" customWidth="1"/>
+    <col min="1" max="2" width="14.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.45" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.0916666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.45" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.725" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="6" style="1" customWidth="1"/>
     <col min="9" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2645,7 +2073,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" ht="57" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="57" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="4"/>
       <c r="C2" s="6" t="s">
@@ -2664,7 +2092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="14.15" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="14.1" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="9" t="s">
@@ -2681,7 +2109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="14.15" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" ht="14.1" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="9" t="s">
@@ -2698,7 +2126,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="14.15" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" ht="14.1" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="9" t="s">
@@ -2715,133 +2143,133 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="14.15" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" ht="14.1" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="9" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="11" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" ht="14.15" customHeight="1" spans="1:7">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.1" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" ht="14.15" customHeight="1" spans="1:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.1" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="E8" s="10"/>
       <c r="F8" s="11" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" ht="14.15" customHeight="1" spans="1:7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.1" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="12" t="s">
-        <v>24</v>
+      <c r="C9" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" ht="14.15" customHeight="1" spans="1:7">
+      <c r="G9" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.1" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" ht="14.15" customHeight="1" spans="1:7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.1" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" ht="14.15" customHeight="1" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.1" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.1" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="10" t="s">
@@ -2851,14 +2279,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:7">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="10" t="s">
@@ -2868,14 +2296,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:7">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="10" t="s">
@@ -2885,48 +2313,48 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:7">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="10" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.25" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="10" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14.25" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="10" t="s">
@@ -2936,430 +2364,430 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:7">
+    <row r="19" spans="1:8" ht="14.25" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14.25" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="10" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14.25" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="10" t="s">
         <v>54</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H21" s="13"/>
     </row>
-    <row r="22" customHeight="1" spans="1:8">
+    <row r="22" spans="1:8" ht="14.25" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="10" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H22" s="13"/>
     </row>
-    <row r="23" customHeight="1" spans="1:8">
+    <row r="23" spans="1:8" ht="14.25" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="10" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H23" s="13"/>
     </row>
-    <row r="24" customHeight="1" spans="1:8">
+    <row r="24" spans="1:8" ht="14.25" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="10" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H24" s="13"/>
     </row>
-    <row r="25" customHeight="1" spans="1:8">
+    <row r="25" spans="1:8" ht="14.25" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="10" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="H25" s="13"/>
     </row>
-    <row r="26" customHeight="1" spans="1:8">
+    <row r="26" spans="1:8" ht="14.25" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="10" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="H26" s="13"/>
     </row>
-    <row r="27" customHeight="1" spans="1:8">
+    <row r="27" spans="1:8" ht="14.25" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="10" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="H27" s="13"/>
     </row>
-    <row r="28" customHeight="1" spans="1:7">
+    <row r="28" spans="1:8" ht="14.25" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" ht="16.5" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="1:8" ht="14.25" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="10" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" ht="16.5" spans="1:7">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="10" t="s">
         <v>54</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" ht="16.5" spans="1:7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="10" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" ht="16.5" spans="1:7">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" ht="16.5" spans="1:7">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="16.5">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="10" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" ht="16.5" spans="1:7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="16.5">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="10" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" ht="16.5" spans="1:7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="16.5">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" ht="16.5" spans="1:7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="16.5">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" ht="16.5" spans="1:7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="16.5">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="10" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" ht="16.5" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="16.5">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="10" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" ht="16.5" spans="1:7">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="16.5">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="10" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" ht="16.5" spans="1:7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="16.5">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="10" t="s">
         <v>42</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" ht="16.5" spans="1:7">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="16.5">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="10" t="s">
         <v>42</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" ht="16.5" spans="1:7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="16.5">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="10" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" ht="16.5" spans="1:7">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="16.5">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="10" t="s">
@@ -3369,63 +2797,81 @@
         <v>117</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="1:7">
+    <row r="44" spans="1:7" ht="16.5">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="10" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" ht="16.5" spans="1:7">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="16.5">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="46" ht="16.5" spans="1:7">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="16.5">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G46" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="16.5">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="10" t="s">
         <v>128</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/config/excel/GlobalConfig.xlsx
+++ b/config/excel/GlobalConfig.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EC39C9-52DF-4360-A0C2-AA86B6DB4BB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -20,19 +14,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="D21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D22" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -41,7 +34,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -49,14 +41,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D23" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -65,7 +56,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -74,14 +64,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="G23" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -90,7 +79,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -99,14 +87,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="G28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="G29" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -115,7 +102,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -123,14 +109,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="D30" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -139,7 +124,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -149,14 +133,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="D32" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -165,7 +148,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -175,14 +157,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="G34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="G35" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -191,7 +172,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -200,14 +180,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="D36" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -216,7 +195,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -226,14 +204,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="G37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="G38" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -242,7 +219,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -250,14 +226,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="G45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="G46" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -266,7 +241,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -279,7 +253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="133">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -355,6 +329,15 @@
     <t>COM确定行动时静帧时间(移动无效)</t>
   </si>
   <si>
+    <t>actFailComReset</t>
+  </si>
+  <si>
+    <t>行动失败时，COM条重置位置%(COM左侧作为起始)</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
     <t>moveReadyTime</t>
   </si>
   <si>
@@ -388,15 +371,18 @@
     <t>暴击率系数</t>
   </si>
   <si>
-    <t>4000</t>
-  </si>
-  <si>
     <t>critIncRatio</t>
   </si>
   <si>
     <t>暴击倍数加成系数</t>
   </si>
   <si>
+    <t>tenacityRatio</t>
+  </si>
+  <si>
+    <t>韧性率系数</t>
+  </si>
+  <si>
     <t>healRatio</t>
   </si>
   <si>
@@ -695,29 +681,19 @@
   </si>
   <si>
     <t>2592000</t>
-  </si>
-  <si>
-    <t>0.5</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>行动失败时，COM条重置位置%(COM左侧作为起始)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>actFailComReset</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -734,14 +710,157 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -754,22 +873,15 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="SimSun"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -788,8 +900,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -857,9 +1155,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -889,10 +1429,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -965,9 +1552,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2038,19 +2622,19 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="14.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="1" customWidth="1"/>
@@ -2062,7 +2646,7 @@
     <col min="9" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" ht="15.75" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2073,7 +2657,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" ht="57" customHeight="1">
+    <row r="2" ht="57" customHeight="1" spans="1:7">
       <c r="A2" s="5"/>
       <c r="B2" s="4"/>
       <c r="C2" s="6" t="s">
@@ -2092,7 +2676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.1" customHeight="1">
+    <row r="3" ht="14.1" customHeight="1" spans="1:7">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="9" t="s">
@@ -2109,7 +2693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.1" customHeight="1">
+    <row r="4" ht="14.1" customHeight="1" spans="1:7">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="9" t="s">
@@ -2126,7 +2710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.1" customHeight="1">
+    <row r="5" ht="14.1" customHeight="1" spans="1:7">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="9" t="s">
@@ -2143,82 +2727,82 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.1" customHeight="1">
+    <row r="6" ht="14.1" customHeight="1" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="9" t="s">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="11" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.1" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" ht="14.1" customHeight="1" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.1" customHeight="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" ht="14.1" customHeight="1" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="11" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.1" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" ht="14.1" customHeight="1" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="11" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="14.1" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" ht="14.1" customHeight="1" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="10" t="s">
@@ -2228,126 +2812,126 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.1" customHeight="1">
+    <row r="11" ht="14.1" customHeight="1" spans="1:7">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="14.1" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" ht="14.1" customHeight="1" spans="1:7">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="14.1" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" ht="14.1" customHeight="1" spans="1:7">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" ht="14.1" customHeight="1" spans="1:7">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="14.25" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:7">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="10" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="14.25" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:7">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="12" t="s">
@@ -2358,65 +2942,64 @@
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="10" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="14.25" customHeight="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:7">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="14.25" customHeight="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:7">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="14.25" customHeight="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:7">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="10" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="1:8" ht="14.25" customHeight="1">
+    </row>
+    <row r="22" customHeight="1" spans="1:8">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="12" t="s">
@@ -2427,451 +3010,468 @@
       </c>
       <c r="